--- a/personal expensis/personal_transactions_analysis.xlsx
+++ b/personal expensis/personal_transactions_analysis.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portfolio website\excel-power-pivot\personal expensis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A91EACE-4593-41AD-92BB-459124D408AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCB327-7054-46E2-A72C-F6FDE4D20B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="2" r:id="rId1"/>
@@ -20,11 +20,26 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">personal_transactions!$A$1:$H$807</definedName>
+    <definedName name="Slicer_Account_Name">#N/A</definedName>
+    <definedName name="Slicer_Category">#N/A</definedName>
+    <definedName name="Slicer_Year">#N/A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4107" uniqueCount="117">
   <si>
     <t>Description</t>
   </si>
@@ -386,12 +401,15 @@
   <si>
     <t>December</t>
   </si>
+  <si>
+    <t>Personal Expenditure Dashboard</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +544,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +732,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -868,11 +899,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -964,7 +1001,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[personal_transactions_analysis.xlsx]Pivot Table!PivotTable1</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1027,6 +1064,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="22225" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1082,7 +1122,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1096,6 +1135,291 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="square"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="22225" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="diamond"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
         <c:spPr>
           <a:ln w="22225" cap="rnd">
             <a:solidFill>
@@ -1152,7 +1476,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1301,7 +1624,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA0D-4EB7-8EE9-3F620DFF2ACC}"/>
+              <c16:uniqueId val="{00000000-59FE-4797-A52F-1B742A1B6D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1427,12 +1750,11 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DA0D-4EB7-8EE9-3F620DFF2ACC}"/>
+              <c16:uniqueId val="{00000004-59FE-4797-A52F-1B742A1B6D85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1782,7 +2104,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[personal_transactions_analysis.xlsx]Pivot Table!PivotTable2</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -1854,17 +2176,119 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1920,7 +2344,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot Table'!$B$21</c:f>
+              <c:f>'Pivot Table'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1941,7 +2365,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$22:$A$24</c:f>
+              <c:f>'Pivot Table'!$F$4:$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1955,7 +2379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$22:$B$24</c:f>
+              <c:f>'Pivot Table'!$G$4:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1970,7 +2394,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-930B-4BB7-ACF5-7612712C9EBA}"/>
+              <c16:uniqueId val="{00000000-DD57-42EB-8141-F626CF12D095}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,7 +2793,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[personal_transactions_analysis.xlsx]Pivot Table!PivotTable3</c:name>
-    <c:fmtId val="3"/>
+    <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -2500,49 +2924,177 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2598,7 +3150,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot Table'!$B$35</c:f>
+              <c:f>'Pivot Table'!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2648,7 +3200,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Table'!$A$36:$A$58</c:f>
+              <c:f>'Pivot Table'!$I$4:$I$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -2722,7 +3274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Table'!$B$36:$B$58</c:f>
+              <c:f>'Pivot Table'!$J$4:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2797,7 +3349,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-103E-4333-84CD-BC6137864C60}"/>
+              <c16:uniqueId val="{00000000-A857-48A1-8E58-9C443C235B85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4777,27 +5329,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72190</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F52E616-E508-CF74-E197-2EEAD453BD9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875F4DE6-D272-4811-AC5D-0C13EF6AD6F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4813,27 +5367,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A637556A-1588-CCCB-0997-6209F114D1E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DBDC29-669E-46BC-BF63-3B3A60E4B10A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4849,27 +5405,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9EEC2E-B954-C858-DE4E-41E7A23A1ED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC0ABCC-5CB8-47C0-AEDB-F71292D49536}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4881,6 +5439,240 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17032</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80681</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Account Name">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D88BEDE-9CC2-E39A-B617-438182505D23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Account Name"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1236232" y="1146649"/>
+              <a:ext cx="1892449" cy="1208508"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25997</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Year">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B313DA17-BEA2-BD63-6668-A284CBE256E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Year"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1245197" y="2424121"/>
+              <a:ext cx="1883485" cy="915874"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>79786</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Category">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52818C7-1BCC-66DA-2756-6C080D0870D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Category"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1246094" y="3390644"/>
+              <a:ext cx="1881692" cy="3387954"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4977,7 +5769,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="392994171"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -13049,8 +13841,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53E4E667-6029-40EB-BECE-AD31E8EC6E1C}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A35:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53E4E667-6029-40EB-BECE-AD31E8EC6E1C}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="I3:J26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -13063,7 +13855,13 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
         <item x="16"/>
@@ -13091,7 +13889,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
@@ -13173,8 +13978,17 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13197,12 +14011,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75564513-0149-40DF-8A21-975B8473543B}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A21:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75564513-0149-40DF-8A21-975B8473543B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="F3:G6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -13212,7 +14032,33 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="16"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
@@ -13242,8 +14088,17 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13266,7 +14121,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6F9C9B2-CAFB-45DF-9F66-A6C1B027C5B1}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6F9C9B2-CAFB-45DF-9F66-A6C1B027C5B1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -13308,9 +14163,48 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="23">
+        <item x="16"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -13373,7 +14267,7 @@
   <dataFields count="1">
     <dataField name="Sum of Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="4">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -13387,6 +14281,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -13428,18 +14346,101 @@
 </queryTable>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Account_Name" xr10:uid="{335DD2C0-59EA-4D31-A35D-2ADC943ED1CE}" sourceName="Account Name">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable2"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="392994171">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Year" xr10:uid="{FC39CA87-855F-4699-837F-5C7ED406A253}" sourceName="Year">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable2"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="392994171">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Category" xr10:uid="{DF6188B5-7080-4B16-845B-961C01827F00}" sourceName="Category">
+  <pivotTables>
+    <pivotTable tabId="7" name="PivotTable1"/>
+    <pivotTable tabId="7" name="PivotTable2"/>
+    <pivotTable tabId="7" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="392994171">
+      <items count="22">
+        <i x="16" s="1"/>
+        <i x="17" s="1"/>
+        <i x="13" s="1"/>
+        <i x="3" s="1"/>
+        <i x="21" s="1"/>
+        <i x="18" s="1"/>
+        <i x="12" s="1"/>
+        <i x="19" s="1"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="15" s="1"/>
+        <i x="5" s="1"/>
+        <i x="14" s="1"/>
+        <i x="8" s="1"/>
+        <i x="1" s="1"/>
+        <i x="4" s="1"/>
+        <i x="7" s="1"/>
+        <i x="11" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="20" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Account Name" xr10:uid="{479E253E-8A8F-4CB6-8F7F-68DAB2E018FD}" cache="Slicer_Account_Name" caption="Account Name" rowHeight="234950"/>
+  <slicer name="Year" xr10:uid="{1666600B-22DD-46BC-8712-934117A7353F}" cache="Slicer_Year" caption="Year" rowHeight="234950"/>
+  <slicer name="Category" xr10:uid="{637D6D92-1866-45D9-8E0D-DCCB044C7FA1}" cache="Slicer_Category" caption="Category" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="personal_transactions" displayName="personal_transactions" ref="A1:H807" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H807" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Month" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Month" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Day" queryTableFieldId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Year" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Description" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Amount" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Transaction Type" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Category" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Account Name" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Transaction Type" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Category" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Account Name" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13921,10 +14922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB06CDE3-C86B-4407-A21C-13D417766C2D}">
-  <dimension ref="A3:D58"/>
+  <dimension ref="A3:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13933,17 +14934,33 @@
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -13956,422 +14973,451 @@
       <c r="D4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5">
+        <v>124269.76000000001</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="5">
+        <v>539.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>10094.339999999998</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>9956.75</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>20051.089999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>96083.78</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>8385.7999999999993</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>7663.41</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>16049.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="5">
+        <v>220353.54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="5">
+        <v>115.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>10821.659999999998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>11033.76</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>21855.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>63561.119999999966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>13196.419999999996</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>10761.439999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>23957.859999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="5">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>16483.580000000002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>10014.519999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>26498.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="5">
+        <v>9.6199999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>9683.07</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>16513.95</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>26197.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5">
+        <v>330.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>7635.3200000000006</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>9790.4599999999991</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>17425.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="5">
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>9775.3300000000017</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>11570.270000000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>21345.600000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1715.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>8521.7000000000007</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>12535.479999999998</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>21057.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2795.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>7870.579999999999</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>7870.579999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>8982.61</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>8982.61</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="5">
+        <v>19092.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>9063.09</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
         <v>9063.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1570.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>120513.5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>99840.040000000008</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>220353.53999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
-        <v>124269.76000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3">
-        <v>96083.78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1680.3999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>24754.500000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="5">
+        <v>222.18999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="5">
+        <v>224.48999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="5">
+        <v>93750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="5">
+        <v>2613.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1973.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="5">
+        <v>104.78000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="3">
-        <v>220353.54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="3">
-        <v>539.13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3">
-        <v>115.54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3">
-        <v>63561.119999999966</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="3">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3">
-        <v>330.63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="3">
-        <v>77.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1715.17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2795.21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="3">
-        <v>19092.87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1570.88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1680.3999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="3">
-        <v>24754.500000000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="3">
-        <v>222.18999999999994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="3">
-        <v>224.48999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="3">
-        <v>93750</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="3">
-        <v>2613.02</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1973.24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="3">
-        <v>104.78000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="3">
-        <v>2776</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="3">
+      <c r="J26" s="5">
         <v>220353.53999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1368FDA6-6014-482C-B6EF-61638B1E8FA7}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="15" max="15" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14422,7 +15468,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
       <c r="B2">
@@ -14448,7 +15494,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>104</v>
       </c>
       <c r="B3">
@@ -14474,7 +15520,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>104</v>
       </c>
       <c r="B4">
@@ -14500,7 +15546,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>104</v>
       </c>
       <c r="B5">
@@ -14526,7 +15572,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>104</v>
       </c>
       <c r="B6">
@@ -14552,7 +15598,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>104</v>
       </c>
       <c r="B7">
@@ -14578,7 +15624,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>104</v>
       </c>
       <c r="B8">
@@ -14604,7 +15650,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>104</v>
       </c>
       <c r="B9">
@@ -14630,7 +15676,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>104</v>
       </c>
       <c r="B10">
@@ -14656,7 +15702,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>104</v>
       </c>
       <c r="B11">
@@ -14682,7 +15728,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>104</v>
       </c>
       <c r="B12">
@@ -14708,7 +15754,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
       <c r="B13">
@@ -14734,7 +15780,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>104</v>
       </c>
       <c r="B14">
@@ -14760,7 +15806,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>104</v>
       </c>
       <c r="B15">
@@ -14786,7 +15832,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>104</v>
       </c>
       <c r="B16">
@@ -14812,7 +15858,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>104</v>
       </c>
       <c r="B17">
@@ -14838,7 +15884,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>104</v>
       </c>
       <c r="B18">
@@ -14864,7 +15910,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
       <c r="B19">
@@ -14890,7 +15936,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>104</v>
       </c>
       <c r="B20">
@@ -14916,7 +15962,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
       <c r="B21">
@@ -14942,7 +15988,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>104</v>
       </c>
       <c r="B22">
@@ -14968,7 +16014,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>104</v>
       </c>
       <c r="B23">
@@ -14994,7 +16040,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>104</v>
       </c>
       <c r="B24">
@@ -15020,7 +16066,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>104</v>
       </c>
       <c r="B25">
@@ -15046,7 +16092,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
       <c r="B26">
@@ -15072,7 +16118,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>104</v>
       </c>
       <c r="B27">
@@ -15098,7 +16144,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>104</v>
       </c>
       <c r="B28">
@@ -15124,7 +16170,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>104</v>
       </c>
       <c r="B29">
@@ -15150,7 +16196,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>104</v>
       </c>
       <c r="B30">
@@ -15176,7 +16222,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>104</v>
       </c>
       <c r="B31">
@@ -15202,7 +16248,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" t="s">
         <v>104</v>
       </c>
       <c r="B32">
@@ -15228,7 +16274,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>104</v>
       </c>
       <c r="B33">
@@ -15254,7 +16300,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>105</v>
       </c>
       <c r="B34">
@@ -15280,7 +16326,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>105</v>
       </c>
       <c r="B35">
@@ -15306,7 +16352,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" t="s">
         <v>105</v>
       </c>
       <c r="B36">
@@ -15332,7 +16378,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>105</v>
       </c>
       <c r="B37">
@@ -15358,7 +16404,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" t="s">
         <v>105</v>
       </c>
       <c r="B38">
@@ -15384,7 +16430,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>105</v>
       </c>
       <c r="B39">
@@ -15410,7 +16456,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>105</v>
       </c>
       <c r="B40">
@@ -15436,7 +16482,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>105</v>
       </c>
       <c r="B41">
@@ -15462,7 +16508,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
       <c r="B42">
@@ -15488,7 +16534,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>105</v>
       </c>
       <c r="B43">
@@ -15514,7 +16560,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
       <c r="B44">
@@ -15540,7 +16586,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
       <c r="B45">
@@ -15566,7 +16612,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>105</v>
       </c>
       <c r="B46">
@@ -15592,7 +16638,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>105</v>
       </c>
       <c r="B47">
@@ -15618,7 +16664,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>105</v>
       </c>
       <c r="B48">
@@ -15644,7 +16690,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>105</v>
       </c>
       <c r="B49">
@@ -15670,7 +16716,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>105</v>
       </c>
       <c r="B50">
@@ -15696,7 +16742,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51">
@@ -15722,7 +16768,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>105</v>
       </c>
       <c r="B52">
@@ -15748,7 +16794,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>105</v>
       </c>
       <c r="B53">
@@ -15774,7 +16820,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>105</v>
       </c>
       <c r="B54">
@@ -15800,7 +16846,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>105</v>
       </c>
       <c r="B55">
@@ -15826,7 +16872,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>105</v>
       </c>
       <c r="B56">
@@ -15852,7 +16898,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>105</v>
       </c>
       <c r="B57">
@@ -15878,7 +16924,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>105</v>
       </c>
       <c r="B58">
@@ -15904,7 +16950,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>105</v>
       </c>
       <c r="B59">
@@ -15930,7 +16976,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>105</v>
       </c>
       <c r="B60">
@@ -15956,7 +17002,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>105</v>
       </c>
       <c r="B61">
@@ -15982,7 +17028,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>105</v>
       </c>
       <c r="B62">
@@ -16008,7 +17054,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>105</v>
       </c>
       <c r="B63">
@@ -16034,7 +17080,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>105</v>
       </c>
       <c r="B64">
@@ -16060,7 +17106,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>105</v>
       </c>
       <c r="B65">
@@ -16086,7 +17132,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>105</v>
       </c>
       <c r="B66">
@@ -16112,7 +17158,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>106</v>
       </c>
       <c r="B67">
@@ -16138,7 +17184,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>106</v>
       </c>
       <c r="B68">
@@ -16164,7 +17210,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>106</v>
       </c>
       <c r="B69">
@@ -16190,7 +17236,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>106</v>
       </c>
       <c r="B70">
@@ -16216,7 +17262,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>106</v>
       </c>
       <c r="B71">
@@ -16242,7 +17288,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" t="s">
         <v>106</v>
       </c>
       <c r="B72">
@@ -16268,7 +17314,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>106</v>
       </c>
       <c r="B73">
@@ -16294,7 +17340,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" t="s">
         <v>106</v>
       </c>
       <c r="B74">
@@ -16320,7 +17366,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>106</v>
       </c>
       <c r="B75">
@@ -16346,7 +17392,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>106</v>
       </c>
       <c r="B76">
@@ -16372,7 +17418,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>106</v>
       </c>
       <c r="B77">
@@ -16398,7 +17444,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>106</v>
       </c>
       <c r="B78">
@@ -16424,7 +17470,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>106</v>
       </c>
       <c r="B79">
@@ -16450,7 +17496,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>106</v>
       </c>
       <c r="B80">
@@ -16476,7 +17522,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>106</v>
       </c>
       <c r="B81">
@@ -16502,7 +17548,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
       <c r="B82">
@@ -16528,7 +17574,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>106</v>
       </c>
       <c r="B83">
@@ -16554,7 +17600,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>106</v>
       </c>
       <c r="B84">
@@ -16580,7 +17626,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>106</v>
       </c>
       <c r="B85">
@@ -16606,7 +17652,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>106</v>
       </c>
       <c r="B86">
@@ -16632,7 +17678,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>106</v>
       </c>
       <c r="B87">
@@ -16658,7 +17704,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>106</v>
       </c>
       <c r="B88">
@@ -16684,7 +17730,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>106</v>
       </c>
       <c r="B89">
@@ -16710,7 +17756,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>106</v>
       </c>
       <c r="B90">
@@ -16736,7 +17782,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>106</v>
       </c>
       <c r="B91">
@@ -16762,7 +17808,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" t="s">
         <v>106</v>
       </c>
       <c r="B92">
@@ -16788,7 +17834,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" t="s">
         <v>106</v>
       </c>
       <c r="B93">
@@ -16814,7 +17860,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" t="s">
         <v>106</v>
       </c>
       <c r="B94">
@@ -16840,7 +17886,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" t="s">
         <v>106</v>
       </c>
       <c r="B95">
@@ -16866,7 +17912,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" t="s">
         <v>106</v>
       </c>
       <c r="B96">
@@ -16892,7 +17938,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>106</v>
       </c>
       <c r="B97">
@@ -16918,7 +17964,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
       <c r="B98">
@@ -16944,7 +17990,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99">
@@ -16970,7 +18016,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100">
@@ -16996,7 +18042,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>106</v>
       </c>
       <c r="B101">
@@ -17022,7 +18068,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" t="s">
         <v>106</v>
       </c>
       <c r="B102">
@@ -17048,7 +18094,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103">
@@ -17074,7 +18120,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104">
@@ -17100,7 +18146,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
@@ -17126,7 +18172,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>106</v>
       </c>
       <c r="B106">
@@ -17152,7 +18198,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -17178,7 +18224,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
@@ -17204,7 +18250,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>106</v>
       </c>
       <c r="B109">
@@ -17230,7 +18276,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>107</v>
       </c>
       <c r="B110">
@@ -17256,7 +18302,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>107</v>
       </c>
       <c r="B111">
@@ -17282,7 +18328,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" t="s">
         <v>107</v>
       </c>
       <c r="B112">
@@ -17308,7 +18354,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" t="s">
         <v>107</v>
       </c>
       <c r="B113">
@@ -17334,7 +18380,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="A114" t="s">
         <v>107</v>
       </c>
       <c r="B114">
@@ -17360,7 +18406,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" t="s">
         <v>107</v>
       </c>
       <c r="B115">
@@ -17386,7 +18432,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+      <c r="A116" t="s">
         <v>107</v>
       </c>
       <c r="B116">
@@ -17412,7 +18458,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="A117" t="s">
         <v>107</v>
       </c>
       <c r="B117">
@@ -17438,7 +18484,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+      <c r="A118" t="s">
         <v>107</v>
       </c>
       <c r="B118">
@@ -17464,7 +18510,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="A119" t="s">
         <v>107</v>
       </c>
       <c r="B119">
@@ -17490,7 +18536,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="A120" t="s">
         <v>107</v>
       </c>
       <c r="B120">
@@ -17516,7 +18562,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" t="s">
         <v>107</v>
       </c>
       <c r="B121">
@@ -17542,7 +18588,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+      <c r="A122" t="s">
         <v>107</v>
       </c>
       <c r="B122">
@@ -17568,7 +18614,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="A123" t="s">
         <v>107</v>
       </c>
       <c r="B123">
@@ -17594,7 +18640,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="A124" t="s">
         <v>107</v>
       </c>
       <c r="B124">
@@ -17620,7 +18666,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="A125" t="s">
         <v>107</v>
       </c>
       <c r="B125">
@@ -17646,7 +18692,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="A126" t="s">
         <v>107</v>
       </c>
       <c r="B126">
@@ -17672,7 +18718,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="A127" t="s">
         <v>107</v>
       </c>
       <c r="B127">
@@ -17698,7 +18744,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="A128" t="s">
         <v>107</v>
       </c>
       <c r="B128">
@@ -17724,7 +18770,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="A129" t="s">
         <v>107</v>
       </c>
       <c r="B129">
@@ -17750,7 +18796,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="A130" t="s">
         <v>107</v>
       </c>
       <c r="B130">
@@ -17776,7 +18822,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+      <c r="A131" t="s">
         <v>107</v>
       </c>
       <c r="B131">
@@ -17802,7 +18848,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="A132" t="s">
         <v>107</v>
       </c>
       <c r="B132">
@@ -17828,7 +18874,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="A133" t="s">
         <v>107</v>
       </c>
       <c r="B133">
@@ -17854,7 +18900,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="A134" t="s">
         <v>107</v>
       </c>
       <c r="B134">
@@ -17880,7 +18926,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="A135" t="s">
         <v>107</v>
       </c>
       <c r="B135">
@@ -17906,7 +18952,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
+      <c r="A136" t="s">
         <v>107</v>
       </c>
       <c r="B136">
@@ -17932,7 +18978,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+      <c r="A137" t="s">
         <v>107</v>
       </c>
       <c r="B137">
@@ -17958,7 +19004,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="A138" t="s">
         <v>107</v>
       </c>
       <c r="B138">
@@ -17984,7 +19030,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="A139" t="s">
         <v>107</v>
       </c>
       <c r="B139">
@@ -18010,7 +19056,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="A140" t="s">
         <v>107</v>
       </c>
       <c r="B140">
@@ -18036,7 +19082,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="A141" t="s">
         <v>107</v>
       </c>
       <c r="B141">
@@ -18062,7 +19108,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="A142" t="s">
         <v>107</v>
       </c>
       <c r="B142">
@@ -18088,7 +19134,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="A143" t="s">
         <v>107</v>
       </c>
       <c r="B143">
@@ -18114,7 +19160,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="A144" t="s">
         <v>107</v>
       </c>
       <c r="B144">
@@ -18140,7 +19186,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="A145" t="s">
         <v>107</v>
       </c>
       <c r="B145">
@@ -18166,7 +19212,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
+      <c r="A146" t="s">
         <v>107</v>
       </c>
       <c r="B146">
@@ -18192,7 +19238,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" t="s">
         <v>107</v>
       </c>
       <c r="B147">
@@ -18218,7 +19264,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+      <c r="A148" t="s">
         <v>107</v>
       </c>
       <c r="B148">
@@ -18244,7 +19290,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+      <c r="A149" t="s">
         <v>107</v>
       </c>
       <c r="B149">
@@ -18270,7 +19316,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="A150" t="s">
         <v>107</v>
       </c>
       <c r="B150">
@@ -18296,7 +19342,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
+      <c r="A151" t="s">
         <v>107</v>
       </c>
       <c r="B151">
@@ -18322,7 +19368,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
+      <c r="A152" t="s">
         <v>107</v>
       </c>
       <c r="B152">
@@ -18348,7 +19394,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="A153" t="s">
         <v>107</v>
       </c>
       <c r="B153">
@@ -18374,7 +19420,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="A154" t="s">
         <v>107</v>
       </c>
       <c r="B154">
@@ -18400,7 +19446,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+      <c r="A155" t="s">
         <v>107</v>
       </c>
       <c r="B155">
@@ -18426,7 +19472,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="A156" t="s">
         <v>107</v>
       </c>
       <c r="B156">
@@ -18452,7 +19498,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+      <c r="A157" t="s">
         <v>107</v>
       </c>
       <c r="B157">
@@ -18478,7 +19524,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" t="s">
         <v>108</v>
       </c>
       <c r="B158">
@@ -18504,7 +19550,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" t="s">
         <v>108</v>
       </c>
       <c r="B159">
@@ -18530,7 +19576,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
+      <c r="A160" t="s">
         <v>108</v>
       </c>
       <c r="B160">
@@ -18556,7 +19602,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" t="s">
         <v>108</v>
       </c>
       <c r="B161">
@@ -18582,7 +19628,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+      <c r="A162" t="s">
         <v>108</v>
       </c>
       <c r="B162">
@@ -18608,7 +19654,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" t="s">
         <v>108</v>
       </c>
       <c r="B163">
@@ -18634,7 +19680,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+      <c r="A164" t="s">
         <v>108</v>
       </c>
       <c r="B164">
@@ -18660,7 +19706,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" t="s">
         <v>108</v>
       </c>
       <c r="B165">
@@ -18686,7 +19732,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" t="s">
         <v>108</v>
       </c>
       <c r="B166">
@@ -18712,7 +19758,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+      <c r="A167" t="s">
         <v>108</v>
       </c>
       <c r="B167">
@@ -18738,7 +19784,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" t="s">
         <v>108</v>
       </c>
       <c r="B168">
@@ -18764,7 +19810,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" t="s">
         <v>108</v>
       </c>
       <c r="B169">
@@ -18790,7 +19836,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
+      <c r="A170" t="s">
         <v>108</v>
       </c>
       <c r="B170">
@@ -18816,7 +19862,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" t="s">
         <v>108</v>
       </c>
       <c r="B171">
@@ -18842,7 +19888,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="A172" t="s">
         <v>108</v>
       </c>
       <c r="B172">
@@ -18868,7 +19914,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="A173" t="s">
         <v>108</v>
       </c>
       <c r="B173">
@@ -18894,7 +19940,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="A174" t="s">
         <v>108</v>
       </c>
       <c r="B174">
@@ -18920,7 +19966,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" t="s">
         <v>108</v>
       </c>
       <c r="B175">
@@ -18946,7 +19992,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="A176" t="s">
         <v>108</v>
       </c>
       <c r="B176">
@@ -18972,7 +20018,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" t="s">
         <v>108</v>
       </c>
       <c r="B177">
@@ -18998,7 +20044,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="A178" t="s">
         <v>108</v>
       </c>
       <c r="B178">
@@ -19024,7 +20070,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="A179" t="s">
         <v>108</v>
       </c>
       <c r="B179">
@@ -19050,7 +20096,7 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="A180" t="s">
         <v>108</v>
       </c>
       <c r="B180">
@@ -19076,7 +20122,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="A181" t="s">
         <v>108</v>
       </c>
       <c r="B181">
@@ -19102,7 +20148,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="A182" t="s">
         <v>108</v>
       </c>
       <c r="B182">
@@ -19128,7 +20174,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="A183" t="s">
         <v>108</v>
       </c>
       <c r="B183">
@@ -19154,7 +20200,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="A184" t="s">
         <v>108</v>
       </c>
       <c r="B184">
@@ -19180,7 +20226,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" t="s">
         <v>108</v>
       </c>
       <c r="B185">
@@ -19206,7 +20252,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="A186" t="s">
         <v>108</v>
       </c>
       <c r="B186">
@@ -19232,7 +20278,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="A187" t="s">
         <v>108</v>
       </c>
       <c r="B187">
@@ -19258,7 +20304,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="A188" t="s">
         <v>108</v>
       </c>
       <c r="B188">
@@ -19284,7 +20330,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" t="s">
         <v>108</v>
       </c>
       <c r="B189">
@@ -19310,7 +20356,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="A190" t="s">
         <v>108</v>
       </c>
       <c r="B190">
@@ -19336,7 +20382,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="A191" t="s">
         <v>108</v>
       </c>
       <c r="B191">
@@ -19362,7 +20408,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" t="s">
         <v>108</v>
       </c>
       <c r="B192">
@@ -19388,7 +20434,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="A193" t="s">
         <v>108</v>
       </c>
       <c r="B193">
@@ -19414,7 +20460,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="A194" t="s">
         <v>108</v>
       </c>
       <c r="B194">
@@ -19440,7 +20486,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="A195" t="s">
         <v>108</v>
       </c>
       <c r="B195">
@@ -19466,7 +20512,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="A196" t="s">
         <v>108</v>
       </c>
       <c r="B196">
@@ -19492,7 +20538,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="A197" t="s">
         <v>108</v>
       </c>
       <c r="B197">
@@ -19518,7 +20564,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="A198" t="s">
         <v>109</v>
       </c>
       <c r="B198">
@@ -19544,7 +20590,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="A199" t="s">
         <v>109</v>
       </c>
       <c r="B199">
@@ -19570,7 +20616,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="A200" t="s">
         <v>109</v>
       </c>
       <c r="B200">
@@ -19596,7 +20642,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="A201" t="s">
         <v>109</v>
       </c>
       <c r="B201">
@@ -19622,7 +20668,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="A202" t="s">
         <v>109</v>
       </c>
       <c r="B202">
@@ -19648,7 +20694,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="A203" t="s">
         <v>109</v>
       </c>
       <c r="B203">
@@ -19674,7 +20720,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="A204" t="s">
         <v>109</v>
       </c>
       <c r="B204">
@@ -19700,7 +20746,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="A205" t="s">
         <v>109</v>
       </c>
       <c r="B205">
@@ -19726,7 +20772,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="A206" t="s">
         <v>109</v>
       </c>
       <c r="B206">
@@ -19752,7 +20798,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="A207" t="s">
         <v>109</v>
       </c>
       <c r="B207">
@@ -19778,7 +20824,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="A208" t="s">
         <v>109</v>
       </c>
       <c r="B208">
@@ -19804,7 +20850,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="A209" t="s">
         <v>109</v>
       </c>
       <c r="B209">
@@ -19830,7 +20876,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="A210" t="s">
         <v>109</v>
       </c>
       <c r="B210">
@@ -19856,7 +20902,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="A211" t="s">
         <v>109</v>
       </c>
       <c r="B211">
@@ -19882,7 +20928,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="A212" t="s">
         <v>109</v>
       </c>
       <c r="B212">
@@ -19908,7 +20954,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="A213" t="s">
         <v>109</v>
       </c>
       <c r="B213">
@@ -19934,7 +20980,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="A214" t="s">
         <v>109</v>
       </c>
       <c r="B214">
@@ -19960,7 +21006,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="A215" t="s">
         <v>109</v>
       </c>
       <c r="B215">
@@ -19986,7 +21032,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="A216" t="s">
         <v>109</v>
       </c>
       <c r="B216">
@@ -20012,7 +21058,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" t="s">
         <v>109</v>
       </c>
       <c r="B217">
@@ -20038,7 +21084,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="A218" t="s">
         <v>109</v>
       </c>
       <c r="B218">
@@ -20064,7 +21110,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="A219" t="s">
         <v>109</v>
       </c>
       <c r="B219">
@@ -20090,7 +21136,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="A220" t="s">
         <v>109</v>
       </c>
       <c r="B220">
@@ -20116,7 +21162,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="A221" t="s">
         <v>109</v>
       </c>
       <c r="B221">
@@ -20142,7 +21188,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" t="s">
         <v>109</v>
       </c>
       <c r="B222">
@@ -20168,7 +21214,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+      <c r="A223" t="s">
         <v>109</v>
       </c>
       <c r="B223">
@@ -20194,7 +21240,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="A224" t="s">
         <v>109</v>
       </c>
       <c r="B224">
@@ -20220,7 +21266,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="A225" t="s">
         <v>109</v>
       </c>
       <c r="B225">
@@ -20246,7 +21292,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="A226" t="s">
         <v>109</v>
       </c>
       <c r="B226">
@@ -20272,7 +21318,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="A227" t="s">
         <v>109</v>
       </c>
       <c r="B227">
@@ -20298,7 +21344,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="A228" t="s">
         <v>109</v>
       </c>
       <c r="B228">
@@ -20324,7 +21370,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="A229" t="s">
         <v>109</v>
       </c>
       <c r="B229">
@@ -20350,7 +21396,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="A230" t="s">
         <v>109</v>
       </c>
       <c r="B230">
@@ -20376,7 +21422,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="A231" t="s">
         <v>109</v>
       </c>
       <c r="B231">
@@ -20402,7 +21448,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="A232" t="s">
         <v>109</v>
       </c>
       <c r="B232">
@@ -20428,7 +21474,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="A233" t="s">
         <v>109</v>
       </c>
       <c r="B233">
@@ -20454,7 +21500,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="A234" t="s">
         <v>109</v>
       </c>
       <c r="B234">
@@ -20480,7 +21526,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="A235" t="s">
         <v>109</v>
       </c>
       <c r="B235">
@@ -20506,7 +21552,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="A236" t="s">
         <v>109</v>
       </c>
       <c r="B236">
@@ -20532,7 +21578,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="A237" t="s">
         <v>109</v>
       </c>
       <c r="B237">
@@ -20558,7 +21604,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="A238" t="s">
         <v>109</v>
       </c>
       <c r="B238">
@@ -20584,7 +21630,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="A239" t="s">
         <v>109</v>
       </c>
       <c r="B239">
@@ -20610,7 +21656,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="A240" t="s">
         <v>109</v>
       </c>
       <c r="B240">
@@ -20636,7 +21682,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="A241" t="s">
         <v>110</v>
       </c>
       <c r="B241">
@@ -20662,7 +21708,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="A242" t="s">
         <v>110</v>
       </c>
       <c r="B242">
@@ -20688,7 +21734,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="A243" t="s">
         <v>110</v>
       </c>
       <c r="B243">
@@ -20714,7 +21760,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="A244" t="s">
         <v>110</v>
       </c>
       <c r="B244">
@@ -20740,7 +21786,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="A245" t="s">
         <v>110</v>
       </c>
       <c r="B245">
@@ -20766,7 +21812,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="A246" t="s">
         <v>110</v>
       </c>
       <c r="B246">
@@ -20792,7 +21838,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="A247" t="s">
         <v>110</v>
       </c>
       <c r="B247">
@@ -20818,7 +21864,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" t="s">
         <v>110</v>
       </c>
       <c r="B248">
@@ -20844,7 +21890,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="A249" t="s">
         <v>110</v>
       </c>
       <c r="B249">
@@ -20870,7 +21916,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="A250" t="s">
         <v>110</v>
       </c>
       <c r="B250">
@@ -20896,7 +21942,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="A251" t="s">
         <v>110</v>
       </c>
       <c r="B251">
@@ -20922,7 +21968,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="A252" t="s">
         <v>110</v>
       </c>
       <c r="B252">
@@ -20948,7 +21994,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="A253" t="s">
         <v>110</v>
       </c>
       <c r="B253">
@@ -20974,7 +22020,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="A254" t="s">
         <v>110</v>
       </c>
       <c r="B254">
@@ -21000,7 +22046,7 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" t="s">
         <v>110</v>
       </c>
       <c r="B255">
@@ -21026,7 +22072,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" t="s">
         <v>110</v>
       </c>
       <c r="B256">
@@ -21052,7 +22098,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="A257" t="s">
         <v>110</v>
       </c>
       <c r="B257">
@@ -21078,7 +22124,7 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="A258" t="s">
         <v>110</v>
       </c>
       <c r="B258">
@@ -21104,7 +22150,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="A259" t="s">
         <v>110</v>
       </c>
       <c r="B259">
@@ -21130,7 +22176,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="A260" t="s">
         <v>110</v>
       </c>
       <c r="B260">
@@ -21156,7 +22202,7 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+      <c r="A261" t="s">
         <v>110</v>
       </c>
       <c r="B261">
@@ -21182,7 +22228,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="A262" t="s">
         <v>110</v>
       </c>
       <c r="B262">
@@ -21208,7 +22254,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="A263" t="s">
         <v>110</v>
       </c>
       <c r="B263">
@@ -21234,7 +22280,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="A264" t="s">
         <v>110</v>
       </c>
       <c r="B264">
@@ -21260,7 +22306,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="A265" t="s">
         <v>110</v>
       </c>
       <c r="B265">
@@ -21286,7 +22332,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="A266" t="s">
         <v>110</v>
       </c>
       <c r="B266">
@@ -21312,7 +22358,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
+      <c r="A267" t="s">
         <v>110</v>
       </c>
       <c r="B267">
@@ -21338,7 +22384,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="A268" t="s">
         <v>110</v>
       </c>
       <c r="B268">
@@ -21364,7 +22410,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+      <c r="A269" t="s">
         <v>110</v>
       </c>
       <c r="B269">
@@ -21390,7 +22436,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
+      <c r="A270" t="s">
         <v>110</v>
       </c>
       <c r="B270">
@@ -21416,7 +22462,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
+      <c r="A271" t="s">
         <v>110</v>
       </c>
       <c r="B271">
@@ -21442,7 +22488,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
+      <c r="A272" t="s">
         <v>110</v>
       </c>
       <c r="B272">
@@ -21468,7 +22514,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+      <c r="A273" t="s">
         <v>110</v>
       </c>
       <c r="B273">
@@ -21494,7 +22540,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
+      <c r="A274" t="s">
         <v>110</v>
       </c>
       <c r="B274">
@@ -21520,7 +22566,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
+      <c r="A275" t="s">
         <v>110</v>
       </c>
       <c r="B275">
@@ -21546,7 +22592,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+      <c r="A276" t="s">
         <v>110</v>
       </c>
       <c r="B276">
@@ -21572,7 +22618,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+      <c r="A277" t="s">
         <v>110</v>
       </c>
       <c r="B277">
@@ -21598,7 +22644,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
+      <c r="A278" t="s">
         <v>110</v>
       </c>
       <c r="B278">
@@ -21624,7 +22670,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
+      <c r="A279" t="s">
         <v>110</v>
       </c>
       <c r="B279">
@@ -21650,7 +22696,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
+      <c r="A280" t="s">
         <v>111</v>
       </c>
       <c r="B280">
@@ -21676,7 +22722,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+      <c r="A281" t="s">
         <v>111</v>
       </c>
       <c r="B281">
@@ -21702,7 +22748,7 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
+      <c r="A282" t="s">
         <v>111</v>
       </c>
       <c r="B282">
@@ -21728,7 +22774,7 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
+      <c r="A283" t="s">
         <v>111</v>
       </c>
       <c r="B283">
@@ -21754,7 +22800,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="3" t="s">
+      <c r="A284" t="s">
         <v>111</v>
       </c>
       <c r="B284">
@@ -21780,7 +22826,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A285" s="3" t="s">
+      <c r="A285" t="s">
         <v>111</v>
       </c>
       <c r="B285">
@@ -21806,7 +22852,7 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
+      <c r="A286" t="s">
         <v>111</v>
       </c>
       <c r="B286">
@@ -21832,7 +22878,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
+      <c r="A287" t="s">
         <v>111</v>
       </c>
       <c r="B287">
@@ -21858,7 +22904,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
+      <c r="A288" t="s">
         <v>111</v>
       </c>
       <c r="B288">
@@ -21884,7 +22930,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
+      <c r="A289" t="s">
         <v>111</v>
       </c>
       <c r="B289">
@@ -21910,7 +22956,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
+      <c r="A290" t="s">
         <v>111</v>
       </c>
       <c r="B290">
@@ -21936,7 +22982,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
+      <c r="A291" t="s">
         <v>111</v>
       </c>
       <c r="B291">
@@ -21962,7 +23008,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
+      <c r="A292" t="s">
         <v>111</v>
       </c>
       <c r="B292">
@@ -21988,7 +23034,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
+      <c r="A293" t="s">
         <v>111</v>
       </c>
       <c r="B293">
@@ -22014,7 +23060,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
+      <c r="A294" t="s">
         <v>111</v>
       </c>
       <c r="B294">
@@ -22040,7 +23086,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="A295" t="s">
         <v>111</v>
       </c>
       <c r="B295">
@@ -22066,7 +23112,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+      <c r="A296" t="s">
         <v>111</v>
       </c>
       <c r="B296">
@@ -22092,7 +23138,7 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="A297" t="s">
         <v>111</v>
       </c>
       <c r="B297">
@@ -22118,7 +23164,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
+      <c r="A298" t="s">
         <v>111</v>
       </c>
       <c r="B298">
@@ -22144,7 +23190,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
+      <c r="A299" t="s">
         <v>111</v>
       </c>
       <c r="B299">
@@ -22170,7 +23216,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
+      <c r="A300" t="s">
         <v>111</v>
       </c>
       <c r="B300">
@@ -22196,7 +23242,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
+      <c r="A301" t="s">
         <v>111</v>
       </c>
       <c r="B301">
@@ -22222,7 +23268,7 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
+      <c r="A302" t="s">
         <v>111</v>
       </c>
       <c r="B302">
@@ -22248,7 +23294,7 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
+      <c r="A303" t="s">
         <v>111</v>
       </c>
       <c r="B303">
@@ -22274,7 +23320,7 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A304" s="3" t="s">
+      <c r="A304" t="s">
         <v>111</v>
       </c>
       <c r="B304">
@@ -22300,7 +23346,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
+      <c r="A305" t="s">
         <v>111</v>
       </c>
       <c r="B305">
@@ -22326,7 +23372,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
+      <c r="A306" t="s">
         <v>111</v>
       </c>
       <c r="B306">
@@ -22352,7 +23398,7 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
+      <c r="A307" t="s">
         <v>111</v>
       </c>
       <c r="B307">
@@ -22378,7 +23424,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A308" s="3" t="s">
+      <c r="A308" t="s">
         <v>111</v>
       </c>
       <c r="B308">
@@ -22404,7 +23450,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
+      <c r="A309" t="s">
         <v>111</v>
       </c>
       <c r="B309">
@@ -22430,7 +23476,7 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A310" s="3" t="s">
+      <c r="A310" t="s">
         <v>111</v>
       </c>
       <c r="B310">
@@ -22456,7 +23502,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A311" s="3" t="s">
+      <c r="A311" t="s">
         <v>111</v>
       </c>
       <c r="B311">
@@ -22482,7 +23528,7 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
+      <c r="A312" t="s">
         <v>111</v>
       </c>
       <c r="B312">
@@ -22508,7 +23554,7 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
+      <c r="A313" t="s">
         <v>112</v>
       </c>
       <c r="B313">
@@ -22534,7 +23580,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
+      <c r="A314" t="s">
         <v>112</v>
       </c>
       <c r="B314">
@@ -22560,7 +23606,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
+      <c r="A315" t="s">
         <v>112</v>
       </c>
       <c r="B315">
@@ -22586,7 +23632,7 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A316" s="3" t="s">
+      <c r="A316" t="s">
         <v>112</v>
       </c>
       <c r="B316">
@@ -22612,7 +23658,7 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
+      <c r="A317" t="s">
         <v>112</v>
       </c>
       <c r="B317">
@@ -22638,7 +23684,7 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
+      <c r="A318" t="s">
         <v>112</v>
       </c>
       <c r="B318">
@@ -22664,7 +23710,7 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
+      <c r="A319" t="s">
         <v>112</v>
       </c>
       <c r="B319">
@@ -22690,7 +23736,7 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
+      <c r="A320" t="s">
         <v>112</v>
       </c>
       <c r="B320">
@@ -22716,7 +23762,7 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
+      <c r="A321" t="s">
         <v>112</v>
       </c>
       <c r="B321">
@@ -22742,7 +23788,7 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
+      <c r="A322" t="s">
         <v>112</v>
       </c>
       <c r="B322">
@@ -22768,7 +23814,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
+      <c r="A323" t="s">
         <v>112</v>
       </c>
       <c r="B323">
@@ -22794,7 +23840,7 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
+      <c r="A324" t="s">
         <v>112</v>
       </c>
       <c r="B324">
@@ -22820,7 +23866,7 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A325" s="3" t="s">
+      <c r="A325" t="s">
         <v>112</v>
       </c>
       <c r="B325">
@@ -22846,7 +23892,7 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
+      <c r="A326" t="s">
         <v>112</v>
       </c>
       <c r="B326">
@@ -22872,7 +23918,7 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
+      <c r="A327" t="s">
         <v>112</v>
       </c>
       <c r="B327">
@@ -22898,7 +23944,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
+      <c r="A328" t="s">
         <v>112</v>
       </c>
       <c r="B328">
@@ -22924,7 +23970,7 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A329" s="3" t="s">
+      <c r="A329" t="s">
         <v>112</v>
       </c>
       <c r="B329">
@@ -22950,7 +23996,7 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
+      <c r="A330" t="s">
         <v>112</v>
       </c>
       <c r="B330">
@@ -22976,7 +24022,7 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
+      <c r="A331" t="s">
         <v>112</v>
       </c>
       <c r="B331">
@@ -23002,7 +24048,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A332" s="3" t="s">
+      <c r="A332" t="s">
         <v>112</v>
       </c>
       <c r="B332">
@@ -23028,7 +24074,7 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
+      <c r="A333" t="s">
         <v>112</v>
       </c>
       <c r="B333">
@@ -23054,7 +24100,7 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
+      <c r="A334" t="s">
         <v>112</v>
       </c>
       <c r="B334">
@@ -23080,7 +24126,7 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
+      <c r="A335" t="s">
         <v>112</v>
       </c>
       <c r="B335">
@@ -23106,7 +24152,7 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
+      <c r="A336" t="s">
         <v>112</v>
       </c>
       <c r="B336">
@@ -23132,7 +24178,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A337" s="3" t="s">
+      <c r="A337" t="s">
         <v>112</v>
       </c>
       <c r="B337">
@@ -23158,7 +24204,7 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
+      <c r="A338" t="s">
         <v>112</v>
       </c>
       <c r="B338">
@@ -23184,7 +24230,7 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
+      <c r="A339" t="s">
         <v>112</v>
       </c>
       <c r="B339">
@@ -23210,7 +24256,7 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
+      <c r="A340" t="s">
         <v>112</v>
       </c>
       <c r="B340">
@@ -23236,7 +24282,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
+      <c r="A341" t="s">
         <v>112</v>
       </c>
       <c r="B341">
@@ -23262,7 +24308,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
+      <c r="A342" t="s">
         <v>112</v>
       </c>
       <c r="B342">
@@ -23288,7 +24334,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
+      <c r="A343" t="s">
         <v>112</v>
       </c>
       <c r="B343">
@@ -23314,7 +24360,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A344" s="3" t="s">
+      <c r="A344" t="s">
         <v>112</v>
       </c>
       <c r="B344">
@@ -23340,7 +24386,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
+      <c r="A345" t="s">
         <v>112</v>
       </c>
       <c r="B345">
@@ -23366,7 +24412,7 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
+      <c r="A346" t="s">
         <v>112</v>
       </c>
       <c r="B346">
@@ -23392,7 +24438,7 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
+      <c r="A347" t="s">
         <v>112</v>
       </c>
       <c r="B347">
@@ -23418,7 +24464,7 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
+      <c r="A348" t="s">
         <v>112</v>
       </c>
       <c r="B348">
@@ -23444,7 +24490,7 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A349" s="3" t="s">
+      <c r="A349" t="s">
         <v>112</v>
       </c>
       <c r="B349">
@@ -23470,7 +24516,7 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A350" s="3" t="s">
+      <c r="A350" t="s">
         <v>112</v>
       </c>
       <c r="B350">
@@ -23496,7 +24542,7 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
+      <c r="A351" t="s">
         <v>112</v>
       </c>
       <c r="B351">
@@ -23522,7 +24568,7 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
+      <c r="A352" t="s">
         <v>113</v>
       </c>
       <c r="B352">
@@ -23548,7 +24594,7 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
+      <c r="A353" t="s">
         <v>113</v>
       </c>
       <c r="B353">
@@ -23574,7 +24620,7 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
+      <c r="A354" t="s">
         <v>113</v>
       </c>
       <c r="B354">
@@ -23600,7 +24646,7 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
+      <c r="A355" t="s">
         <v>113</v>
       </c>
       <c r="B355">
@@ -23626,7 +24672,7 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
+      <c r="A356" t="s">
         <v>113</v>
       </c>
       <c r="B356">
@@ -23652,7 +24698,7 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A357" s="3" t="s">
+      <c r="A357" t="s">
         <v>113</v>
       </c>
       <c r="B357">
@@ -23678,7 +24724,7 @@
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
+      <c r="A358" t="s">
         <v>113</v>
       </c>
       <c r="B358">
@@ -23704,7 +24750,7 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A359" s="3" t="s">
+      <c r="A359" t="s">
         <v>113</v>
       </c>
       <c r="B359">
@@ -23730,7 +24776,7 @@
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
+      <c r="A360" t="s">
         <v>113</v>
       </c>
       <c r="B360">
@@ -23756,7 +24802,7 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A361" s="3" t="s">
+      <c r="A361" t="s">
         <v>113</v>
       </c>
       <c r="B361">
@@ -23782,7 +24828,7 @@
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
+      <c r="A362" t="s">
         <v>113</v>
       </c>
       <c r="B362">
@@ -23808,7 +24854,7 @@
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A363" s="3" t="s">
+      <c r="A363" t="s">
         <v>113</v>
       </c>
       <c r="B363">
@@ -23834,7 +24880,7 @@
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
+      <c r="A364" t="s">
         <v>113</v>
       </c>
       <c r="B364">
@@ -23860,7 +24906,7 @@
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A365" s="3" t="s">
+      <c r="A365" t="s">
         <v>113</v>
       </c>
       <c r="B365">
@@ -23886,7 +24932,7 @@
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
+      <c r="A366" t="s">
         <v>113</v>
       </c>
       <c r="B366">
@@ -23912,7 +24958,7 @@
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A367" s="3" t="s">
+      <c r="A367" t="s">
         <v>113</v>
       </c>
       <c r="B367">
@@ -23938,7 +24984,7 @@
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
+      <c r="A368" t="s">
         <v>113</v>
       </c>
       <c r="B368">
@@ -23964,7 +25010,7 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
+      <c r="A369" t="s">
         <v>113</v>
       </c>
       <c r="B369">
@@ -23990,7 +25036,7 @@
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A370" s="3" t="s">
+      <c r="A370" t="s">
         <v>113</v>
       </c>
       <c r="B370">
@@ -24016,7 +25062,7 @@
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A371" s="3" t="s">
+      <c r="A371" t="s">
         <v>113</v>
       </c>
       <c r="B371">
@@ -24042,7 +25088,7 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A372" s="3" t="s">
+      <c r="A372" t="s">
         <v>113</v>
       </c>
       <c r="B372">
@@ -24068,7 +25114,7 @@
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
+      <c r="A373" t="s">
         <v>113</v>
       </c>
       <c r="B373">
@@ -24094,7 +25140,7 @@
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A374" s="3" t="s">
+      <c r="A374" t="s">
         <v>113</v>
       </c>
       <c r="B374">
@@ -24120,7 +25166,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A375" s="3" t="s">
+      <c r="A375" t="s">
         <v>113</v>
       </c>
       <c r="B375">
@@ -24146,7 +25192,7 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
+      <c r="A376" t="s">
         <v>113</v>
       </c>
       <c r="B376">
@@ -24172,7 +25218,7 @@
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
+      <c r="A377" t="s">
         <v>113</v>
       </c>
       <c r="B377">
@@ -24198,7 +25244,7 @@
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A378" s="3" t="s">
+      <c r="A378" t="s">
         <v>113</v>
       </c>
       <c r="B378">
@@ -24224,7 +25270,7 @@
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A379" s="3" t="s">
+      <c r="A379" t="s">
         <v>113</v>
       </c>
       <c r="B379">
@@ -24250,7 +25296,7 @@
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
+      <c r="A380" t="s">
         <v>113</v>
       </c>
       <c r="B380">
@@ -24276,7 +25322,7 @@
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
+      <c r="A381" t="s">
         <v>113</v>
       </c>
       <c r="B381">
@@ -24302,7 +25348,7 @@
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
+      <c r="A382" t="s">
         <v>113</v>
       </c>
       <c r="B382">
@@ -24328,7 +25374,7 @@
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
+      <c r="A383" t="s">
         <v>113</v>
       </c>
       <c r="B383">
@@ -24354,7 +25400,7 @@
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
+      <c r="A384" t="s">
         <v>113</v>
       </c>
       <c r="B384">
@@ -24380,7 +25426,7 @@
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A385" s="3" t="s">
+      <c r="A385" t="s">
         <v>113</v>
       </c>
       <c r="B385">
@@ -24406,7 +25452,7 @@
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
+      <c r="A386" t="s">
         <v>113</v>
       </c>
       <c r="B386">
@@ -24432,7 +25478,7 @@
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A387" s="3" t="s">
+      <c r="A387" t="s">
         <v>113</v>
       </c>
       <c r="B387">
@@ -24458,7 +25504,7 @@
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A388" s="3" t="s">
+      <c r="A388" t="s">
         <v>113</v>
       </c>
       <c r="B388">
@@ -24484,7 +25530,7 @@
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
+      <c r="A389" t="s">
         <v>113</v>
       </c>
       <c r="B389">
@@ -24510,7 +25556,7 @@
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
+      <c r="A390" t="s">
         <v>114</v>
       </c>
       <c r="B390">
@@ -24536,7 +25582,7 @@
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
+      <c r="A391" t="s">
         <v>114</v>
       </c>
       <c r="B391">
@@ -24562,7 +25608,7 @@
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
+      <c r="A392" t="s">
         <v>114</v>
       </c>
       <c r="B392">
@@ -24588,7 +25634,7 @@
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
+      <c r="A393" t="s">
         <v>114</v>
       </c>
       <c r="B393">
@@ -24614,7 +25660,7 @@
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
+      <c r="A394" t="s">
         <v>114</v>
       </c>
       <c r="B394">
@@ -24640,7 +25686,7 @@
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
+      <c r="A395" t="s">
         <v>114</v>
       </c>
       <c r="B395">
@@ -24666,7 +25712,7 @@
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
+      <c r="A396" t="s">
         <v>114</v>
       </c>
       <c r="B396">
@@ -24692,7 +25738,7 @@
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A397" s="3" t="s">
+      <c r="A397" t="s">
         <v>114</v>
       </c>
       <c r="B397">
@@ -24718,7 +25764,7 @@
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A398" s="3" t="s">
+      <c r="A398" t="s">
         <v>114</v>
       </c>
       <c r="B398">
@@ -24744,7 +25790,7 @@
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A399" s="3" t="s">
+      <c r="A399" t="s">
         <v>114</v>
       </c>
       <c r="B399">
@@ -24770,7 +25816,7 @@
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
+      <c r="A400" t="s">
         <v>114</v>
       </c>
       <c r="B400">
@@ -24796,7 +25842,7 @@
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A401" s="3" t="s">
+      <c r="A401" t="s">
         <v>114</v>
       </c>
       <c r="B401">
@@ -24822,7 +25868,7 @@
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
+      <c r="A402" t="s">
         <v>114</v>
       </c>
       <c r="B402">
@@ -24848,7 +25894,7 @@
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A403" s="3" t="s">
+      <c r="A403" t="s">
         <v>114</v>
       </c>
       <c r="B403">
@@ -24874,7 +25920,7 @@
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A404" s="3" t="s">
+      <c r="A404" t="s">
         <v>114</v>
       </c>
       <c r="B404">
@@ -24900,7 +25946,7 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A405" s="3" t="s">
+      <c r="A405" t="s">
         <v>114</v>
       </c>
       <c r="B405">
@@ -24926,7 +25972,7 @@
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
+      <c r="A406" t="s">
         <v>114</v>
       </c>
       <c r="B406">
@@ -24952,7 +25998,7 @@
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="s">
+      <c r="A407" t="s">
         <v>114</v>
       </c>
       <c r="B407">
@@ -24978,7 +26024,7 @@
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
+      <c r="A408" t="s">
         <v>114</v>
       </c>
       <c r="B408">
@@ -25004,7 +26050,7 @@
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
+      <c r="A409" t="s">
         <v>114</v>
       </c>
       <c r="B409">
@@ -25030,7 +26076,7 @@
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
+      <c r="A410" t="s">
         <v>114</v>
       </c>
       <c r="B410">
@@ -25056,7 +26102,7 @@
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="s">
+      <c r="A411" t="s">
         <v>114</v>
       </c>
       <c r="B411">
@@ -25082,7 +26128,7 @@
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
+      <c r="A412" t="s">
         <v>114</v>
       </c>
       <c r="B412">
@@ -25108,7 +26154,7 @@
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
+      <c r="A413" t="s">
         <v>114</v>
       </c>
       <c r="B413">
@@ -25134,7 +26180,7 @@
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
+      <c r="A414" t="s">
         <v>114</v>
       </c>
       <c r="B414">
@@ -25160,7 +26206,7 @@
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
+      <c r="A415" t="s">
         <v>114</v>
       </c>
       <c r="B415">
@@ -25186,7 +26232,7 @@
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A416" s="3" t="s">
+      <c r="A416" t="s">
         <v>114</v>
       </c>
       <c r="B416">
@@ -25212,7 +26258,7 @@
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A417" s="3" t="s">
+      <c r="A417" t="s">
         <v>114</v>
       </c>
       <c r="B417">
@@ -25238,7 +26284,7 @@
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
+      <c r="A418" t="s">
         <v>114</v>
       </c>
       <c r="B418">
@@ -25264,7 +26310,7 @@
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A419" s="3" t="s">
+      <c r="A419" t="s">
         <v>114</v>
       </c>
       <c r="B419">
@@ -25290,7 +26336,7 @@
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
+      <c r="A420" t="s">
         <v>114</v>
       </c>
       <c r="B420">
@@ -25316,7 +26362,7 @@
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
+      <c r="A421" t="s">
         <v>114</v>
       </c>
       <c r="B421">
@@ -25342,7 +26388,7 @@
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A422" s="3" t="s">
+      <c r="A422" t="s">
         <v>114</v>
       </c>
       <c r="B422">
@@ -25368,7 +26414,7 @@
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
+      <c r="A423" t="s">
         <v>114</v>
       </c>
       <c r="B423">
@@ -25394,7 +26440,7 @@
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
+      <c r="A424" t="s">
         <v>114</v>
       </c>
       <c r="B424">
@@ -25420,7 +26466,7 @@
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A425" s="3" t="s">
+      <c r="A425" t="s">
         <v>114</v>
       </c>
       <c r="B425">
@@ -25446,7 +26492,7 @@
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
+      <c r="A426" t="s">
         <v>114</v>
       </c>
       <c r="B426">
@@ -25472,7 +26518,7 @@
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A427" s="3" t="s">
+      <c r="A427" t="s">
         <v>114</v>
       </c>
       <c r="B427">
@@ -25498,7 +26544,7 @@
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
+      <c r="A428" t="s">
         <v>114</v>
       </c>
       <c r="B428">
@@ -25524,7 +26570,7 @@
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A429" s="3" t="s">
+      <c r="A429" t="s">
         <v>114</v>
       </c>
       <c r="B429">
@@ -25550,7 +26596,7 @@
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
+      <c r="A430" t="s">
         <v>114</v>
       </c>
       <c r="B430">
@@ -25576,7 +26622,7 @@
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A431" s="3" t="s">
+      <c r="A431" t="s">
         <v>114</v>
       </c>
       <c r="B431">
@@ -25602,7 +26648,7 @@
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
+      <c r="A432" t="s">
         <v>114</v>
       </c>
       <c r="B432">
@@ -25628,7 +26674,7 @@
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
+      <c r="A433" t="s">
         <v>115</v>
       </c>
       <c r="B433">
@@ -25654,7 +26700,7 @@
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
+      <c r="A434" t="s">
         <v>115</v>
       </c>
       <c r="B434">
@@ -25680,7 +26726,7 @@
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
+      <c r="A435" t="s">
         <v>115</v>
       </c>
       <c r="B435">
@@ -25706,7 +26752,7 @@
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
+      <c r="A436" t="s">
         <v>115</v>
       </c>
       <c r="B436">
@@ -25732,7 +26778,7 @@
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A437" s="3" t="s">
+      <c r="A437" t="s">
         <v>115</v>
       </c>
       <c r="B437">
@@ -25758,7 +26804,7 @@
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
+      <c r="A438" t="s">
         <v>115</v>
       </c>
       <c r="B438">
@@ -25784,7 +26830,7 @@
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A439" s="3" t="s">
+      <c r="A439" t="s">
         <v>115</v>
       </c>
       <c r="B439">
@@ -25810,7 +26856,7 @@
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A440" s="3" t="s">
+      <c r="A440" t="s">
         <v>115</v>
       </c>
       <c r="B440">
@@ -25836,7 +26882,7 @@
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A441" s="3" t="s">
+      <c r="A441" t="s">
         <v>115</v>
       </c>
       <c r="B441">
@@ -25862,7 +26908,7 @@
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A442" s="3" t="s">
+      <c r="A442" t="s">
         <v>115</v>
       </c>
       <c r="B442">
@@ -25888,7 +26934,7 @@
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A443" s="3" t="s">
+      <c r="A443" t="s">
         <v>115</v>
       </c>
       <c r="B443">
@@ -25914,7 +26960,7 @@
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A444" s="3" t="s">
+      <c r="A444" t="s">
         <v>115</v>
       </c>
       <c r="B444">
@@ -25940,7 +26986,7 @@
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A445" s="3" t="s">
+      <c r="A445" t="s">
         <v>115</v>
       </c>
       <c r="B445">
@@ -25966,7 +27012,7 @@
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A446" s="3" t="s">
+      <c r="A446" t="s">
         <v>115</v>
       </c>
       <c r="B446">
@@ -25992,7 +27038,7 @@
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A447" s="3" t="s">
+      <c r="A447" t="s">
         <v>115</v>
       </c>
       <c r="B447">
@@ -26018,7 +27064,7 @@
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A448" s="3" t="s">
+      <c r="A448" t="s">
         <v>115</v>
       </c>
       <c r="B448">
@@ -26044,7 +27090,7 @@
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A449" s="3" t="s">
+      <c r="A449" t="s">
         <v>115</v>
       </c>
       <c r="B449">
@@ -26070,7 +27116,7 @@
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A450" s="3" t="s">
+      <c r="A450" t="s">
         <v>115</v>
       </c>
       <c r="B450">
@@ -26096,7 +27142,7 @@
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A451" s="3" t="s">
+      <c r="A451" t="s">
         <v>115</v>
       </c>
       <c r="B451">
@@ -26122,7 +27168,7 @@
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A452" s="3" t="s">
+      <c r="A452" t="s">
         <v>115</v>
       </c>
       <c r="B452">
@@ -26148,7 +27194,7 @@
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A453" s="3" t="s">
+      <c r="A453" t="s">
         <v>115</v>
       </c>
       <c r="B453">
@@ -26174,7 +27220,7 @@
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A454" s="3" t="s">
+      <c r="A454" t="s">
         <v>115</v>
       </c>
       <c r="B454">
@@ -26200,7 +27246,7 @@
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A455" s="3" t="s">
+      <c r="A455" t="s">
         <v>115</v>
       </c>
       <c r="B455">
@@ -26226,7 +27272,7 @@
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A456" s="3" t="s">
+      <c r="A456" t="s">
         <v>115</v>
       </c>
       <c r="B456">
@@ -26252,7 +27298,7 @@
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A457" s="3" t="s">
+      <c r="A457" t="s">
         <v>115</v>
       </c>
       <c r="B457">
@@ -26278,7 +27324,7 @@
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A458" s="3" t="s">
+      <c r="A458" t="s">
         <v>115</v>
       </c>
       <c r="B458">
@@ -26304,7 +27350,7 @@
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A459" s="3" t="s">
+      <c r="A459" t="s">
         <v>115</v>
       </c>
       <c r="B459">
@@ -26330,7 +27376,7 @@
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A460" s="3" t="s">
+      <c r="A460" t="s">
         <v>115</v>
       </c>
       <c r="B460">
@@ -26356,7 +27402,7 @@
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A461" s="3" t="s">
+      <c r="A461" t="s">
         <v>115</v>
       </c>
       <c r="B461">
@@ -26382,7 +27428,7 @@
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A462" s="3" t="s">
+      <c r="A462" t="s">
         <v>115</v>
       </c>
       <c r="B462">
@@ -26408,7 +27454,7 @@
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A463" s="3" t="s">
+      <c r="A463" t="s">
         <v>115</v>
       </c>
       <c r="B463">
@@ -26434,7 +27480,7 @@
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A464" s="3" t="s">
+      <c r="A464" t="s">
         <v>115</v>
       </c>
       <c r="B464">
@@ -26460,7 +27506,7 @@
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A465" s="3" t="s">
+      <c r="A465" t="s">
         <v>115</v>
       </c>
       <c r="B465">
@@ -26486,7 +27532,7 @@
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A466" s="3" t="s">
+      <c r="A466" t="s">
         <v>115</v>
       </c>
       <c r="B466">
@@ -26512,7 +27558,7 @@
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A467" s="3" t="s">
+      <c r="A467" t="s">
         <v>115</v>
       </c>
       <c r="B467">
@@ -26538,7 +27584,7 @@
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A468" s="3" t="s">
+      <c r="A468" t="s">
         <v>115</v>
       </c>
       <c r="B468">
@@ -26564,7 +27610,7 @@
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A469" s="3" t="s">
+      <c r="A469" t="s">
         <v>115</v>
       </c>
       <c r="B469">
@@ -26590,7 +27636,7 @@
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A470" s="3" t="s">
+      <c r="A470" t="s">
         <v>115</v>
       </c>
       <c r="B470">
@@ -26616,7 +27662,7 @@
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A471" s="3" t="s">
+      <c r="A471" t="s">
         <v>115</v>
       </c>
       <c r="B471">
@@ -26642,7 +27688,7 @@
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A472" s="3" t="s">
+      <c r="A472" t="s">
         <v>115</v>
       </c>
       <c r="B472">
@@ -26668,7 +27714,7 @@
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A473" s="3" t="s">
+      <c r="A473" t="s">
         <v>115</v>
       </c>
       <c r="B473">
@@ -26694,7 +27740,7 @@
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A474" s="3" t="s">
+      <c r="A474" t="s">
         <v>115</v>
       </c>
       <c r="B474">
@@ -26720,7 +27766,7 @@
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A475" s="3" t="s">
+      <c r="A475" t="s">
         <v>115</v>
       </c>
       <c r="B475">
@@ -26746,7 +27792,7 @@
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A476" s="3" t="s">
+      <c r="A476" t="s">
         <v>115</v>
       </c>
       <c r="B476">
@@ -26772,7 +27818,7 @@
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A477" s="3" t="s">
+      <c r="A477" t="s">
         <v>115</v>
       </c>
       <c r="B477">
@@ -26798,7 +27844,7 @@
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A478" s="3" t="s">
+      <c r="A478" t="s">
         <v>115</v>
       </c>
       <c r="B478">
@@ -26824,7 +27870,7 @@
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A479" s="3" t="s">
+      <c r="A479" t="s">
         <v>115</v>
       </c>
       <c r="B479">
@@ -26850,7 +27896,7 @@
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A480" s="3" t="s">
+      <c r="A480" t="s">
         <v>115</v>
       </c>
       <c r="B480">
@@ -26876,7 +27922,7 @@
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A481" s="3" t="s">
+      <c r="A481" t="s">
         <v>115</v>
       </c>
       <c r="B481">
@@ -26902,7 +27948,7 @@
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A482" s="3" t="s">
+      <c r="A482" t="s">
         <v>115</v>
       </c>
       <c r="B482">
@@ -26928,7 +27974,7 @@
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A483" s="3" t="s">
+      <c r="A483" t="s">
         <v>115</v>
       </c>
       <c r="B483">
@@ -26954,7 +28000,7 @@
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A484" s="3" t="s">
+      <c r="A484" t="s">
         <v>104</v>
       </c>
       <c r="B484">
@@ -26980,7 +28026,7 @@
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A485" s="3" t="s">
+      <c r="A485" t="s">
         <v>104</v>
       </c>
       <c r="B485">
@@ -27006,7 +28052,7 @@
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A486" s="3" t="s">
+      <c r="A486" t="s">
         <v>104</v>
       </c>
       <c r="B486">
@@ -27032,7 +28078,7 @@
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A487" s="3" t="s">
+      <c r="A487" t="s">
         <v>104</v>
       </c>
       <c r="B487">
@@ -27058,7 +28104,7 @@
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A488" s="3" t="s">
+      <c r="A488" t="s">
         <v>104</v>
       </c>
       <c r="B488">
@@ -27084,7 +28130,7 @@
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A489" s="3" t="s">
+      <c r="A489" t="s">
         <v>104</v>
       </c>
       <c r="B489">
@@ -27110,7 +28156,7 @@
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A490" s="3" t="s">
+      <c r="A490" t="s">
         <v>104</v>
       </c>
       <c r="B490">
@@ -27136,7 +28182,7 @@
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A491" s="3" t="s">
+      <c r="A491" t="s">
         <v>104</v>
       </c>
       <c r="B491">
@@ -27162,7 +28208,7 @@
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A492" s="3" t="s">
+      <c r="A492" t="s">
         <v>104</v>
       </c>
       <c r="B492">
@@ -27188,7 +28234,7 @@
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A493" s="3" t="s">
+      <c r="A493" t="s">
         <v>104</v>
       </c>
       <c r="B493">
@@ -27214,7 +28260,7 @@
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A494" s="3" t="s">
+      <c r="A494" t="s">
         <v>104</v>
       </c>
       <c r="B494">
@@ -27240,7 +28286,7 @@
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A495" s="3" t="s">
+      <c r="A495" t="s">
         <v>104</v>
       </c>
       <c r="B495">
@@ -27266,7 +28312,7 @@
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A496" s="3" t="s">
+      <c r="A496" t="s">
         <v>104</v>
       </c>
       <c r="B496">
@@ -27292,7 +28338,7 @@
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A497" s="3" t="s">
+      <c r="A497" t="s">
         <v>104</v>
       </c>
       <c r="B497">
@@ -27318,7 +28364,7 @@
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A498" s="3" t="s">
+      <c r="A498" t="s">
         <v>104</v>
       </c>
       <c r="B498">
@@ -27344,7 +28390,7 @@
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A499" s="3" t="s">
+      <c r="A499" t="s">
         <v>104</v>
       </c>
       <c r="B499">
@@ -27370,7 +28416,7 @@
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A500" s="3" t="s">
+      <c r="A500" t="s">
         <v>104</v>
       </c>
       <c r="B500">
@@ -27396,7 +28442,7 @@
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A501" s="3" t="s">
+      <c r="A501" t="s">
         <v>104</v>
       </c>
       <c r="B501">
@@ -27422,7 +28468,7 @@
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A502" s="3" t="s">
+      <c r="A502" t="s">
         <v>104</v>
       </c>
       <c r="B502">
@@ -27448,7 +28494,7 @@
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A503" s="3" t="s">
+      <c r="A503" t="s">
         <v>104</v>
       </c>
       <c r="B503">
@@ -27474,7 +28520,7 @@
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A504" s="3" t="s">
+      <c r="A504" t="s">
         <v>104</v>
       </c>
       <c r="B504">
@@ -27500,7 +28546,7 @@
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A505" s="3" t="s">
+      <c r="A505" t="s">
         <v>104</v>
       </c>
       <c r="B505">
@@ -27526,7 +28572,7 @@
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A506" s="3" t="s">
+      <c r="A506" t="s">
         <v>104</v>
       </c>
       <c r="B506">
@@ -27552,7 +28598,7 @@
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A507" s="3" t="s">
+      <c r="A507" t="s">
         <v>104</v>
       </c>
       <c r="B507">
@@ -27578,7 +28624,7 @@
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A508" s="3" t="s">
+      <c r="A508" t="s">
         <v>104</v>
       </c>
       <c r="B508">
@@ -27604,7 +28650,7 @@
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A509" s="3" t="s">
+      <c r="A509" t="s">
         <v>104</v>
       </c>
       <c r="B509">
@@ -27630,7 +28676,7 @@
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A510" s="3" t="s">
+      <c r="A510" t="s">
         <v>104</v>
       </c>
       <c r="B510">
@@ -27656,7 +28702,7 @@
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A511" s="3" t="s">
+      <c r="A511" t="s">
         <v>104</v>
       </c>
       <c r="B511">
@@ -27682,7 +28728,7 @@
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A512" s="3" t="s">
+      <c r="A512" t="s">
         <v>105</v>
       </c>
       <c r="B512">
@@ -27708,7 +28754,7 @@
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A513" s="3" t="s">
+      <c r="A513" t="s">
         <v>105</v>
       </c>
       <c r="B513">
@@ -27734,7 +28780,7 @@
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A514" s="3" t="s">
+      <c r="A514" t="s">
         <v>105</v>
       </c>
       <c r="B514">
@@ -27760,7 +28806,7 @@
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A515" s="3" t="s">
+      <c r="A515" t="s">
         <v>105</v>
       </c>
       <c r="B515">
@@ -27786,7 +28832,7 @@
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A516" s="3" t="s">
+      <c r="A516" t="s">
         <v>105</v>
       </c>
       <c r="B516">
@@ -27812,7 +28858,7 @@
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A517" s="3" t="s">
+      <c r="A517" t="s">
         <v>105</v>
       </c>
       <c r="B517">
@@ -27838,7 +28884,7 @@
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A518" s="3" t="s">
+      <c r="A518" t="s">
         <v>105</v>
       </c>
       <c r="B518">
@@ -27864,7 +28910,7 @@
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A519" s="3" t="s">
+      <c r="A519" t="s">
         <v>105</v>
       </c>
       <c r="B519">
@@ -27890,7 +28936,7 @@
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A520" s="3" t="s">
+      <c r="A520" t="s">
         <v>105</v>
       </c>
       <c r="B520">
@@ -27916,7 +28962,7 @@
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A521" s="3" t="s">
+      <c r="A521" t="s">
         <v>105</v>
       </c>
       <c r="B521">
@@ -27942,7 +28988,7 @@
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A522" s="3" t="s">
+      <c r="A522" t="s">
         <v>105</v>
       </c>
       <c r="B522">
@@ -27968,7 +29014,7 @@
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A523" s="3" t="s">
+      <c r="A523" t="s">
         <v>105</v>
       </c>
       <c r="B523">
@@ -27994,7 +29040,7 @@
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A524" s="3" t="s">
+      <c r="A524" t="s">
         <v>105</v>
       </c>
       <c r="B524">
@@ -28020,7 +29066,7 @@
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A525" s="3" t="s">
+      <c r="A525" t="s">
         <v>105</v>
       </c>
       <c r="B525">
@@ -28046,7 +29092,7 @@
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A526" s="3" t="s">
+      <c r="A526" t="s">
         <v>105</v>
       </c>
       <c r="B526">
@@ -28072,7 +29118,7 @@
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A527" s="3" t="s">
+      <c r="A527" t="s">
         <v>105</v>
       </c>
       <c r="B527">
@@ -28098,7 +29144,7 @@
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A528" s="3" t="s">
+      <c r="A528" t="s">
         <v>105</v>
       </c>
       <c r="B528">
@@ -28124,7 +29170,7 @@
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A529" s="3" t="s">
+      <c r="A529" t="s">
         <v>105</v>
       </c>
       <c r="B529">
@@ -28150,7 +29196,7 @@
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A530" s="3" t="s">
+      <c r="A530" t="s">
         <v>105</v>
       </c>
       <c r="B530">
@@ -28176,7 +29222,7 @@
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A531" s="3" t="s">
+      <c r="A531" t="s">
         <v>105</v>
       </c>
       <c r="B531">
@@ -28202,7 +29248,7 @@
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A532" s="3" t="s">
+      <c r="A532" t="s">
         <v>105</v>
       </c>
       <c r="B532">
@@ -28228,7 +29274,7 @@
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A533" s="3" t="s">
+      <c r="A533" t="s">
         <v>105</v>
       </c>
       <c r="B533">
@@ -28254,7 +29300,7 @@
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A534" s="3" t="s">
+      <c r="A534" t="s">
         <v>105</v>
       </c>
       <c r="B534">
@@ -28280,7 +29326,7 @@
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A535" s="3" t="s">
+      <c r="A535" t="s">
         <v>105</v>
       </c>
       <c r="B535">
@@ -28306,7 +29352,7 @@
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A536" s="3" t="s">
+      <c r="A536" t="s">
         <v>105</v>
       </c>
       <c r="B536">
@@ -28332,7 +29378,7 @@
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A537" s="3" t="s">
+      <c r="A537" t="s">
         <v>105</v>
       </c>
       <c r="B537">
@@ -28358,7 +29404,7 @@
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A538" s="3" t="s">
+      <c r="A538" t="s">
         <v>105</v>
       </c>
       <c r="B538">
@@ -28384,7 +29430,7 @@
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A539" s="3" t="s">
+      <c r="A539" t="s">
         <v>105</v>
       </c>
       <c r="B539">
@@ -28410,7 +29456,7 @@
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A540" s="3" t="s">
+      <c r="A540" t="s">
         <v>105</v>
       </c>
       <c r="B540">
@@ -28436,7 +29482,7 @@
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A541" s="3" t="s">
+      <c r="A541" t="s">
         <v>105</v>
       </c>
       <c r="B541">
@@ -28462,7 +29508,7 @@
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A542" s="3" t="s">
+      <c r="A542" t="s">
         <v>105</v>
       </c>
       <c r="B542">
@@ -28488,7 +29534,7 @@
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A543" s="3" t="s">
+      <c r="A543" t="s">
         <v>105</v>
       </c>
       <c r="B543">
@@ -28514,7 +29560,7 @@
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A544" s="3" t="s">
+      <c r="A544" t="s">
         <v>105</v>
       </c>
       <c r="B544">
@@ -28540,7 +29586,7 @@
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A545" s="3" t="s">
+      <c r="A545" t="s">
         <v>105</v>
       </c>
       <c r="B545">
@@ -28566,7 +29612,7 @@
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A546" s="3" t="s">
+      <c r="A546" t="s">
         <v>105</v>
       </c>
       <c r="B546">
@@ -28592,7 +29638,7 @@
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A547" s="3" t="s">
+      <c r="A547" t="s">
         <v>106</v>
       </c>
       <c r="B547">
@@ -28618,7 +29664,7 @@
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A548" s="3" t="s">
+      <c r="A548" t="s">
         <v>106</v>
       </c>
       <c r="B548">
@@ -28644,7 +29690,7 @@
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A549" s="3" t="s">
+      <c r="A549" t="s">
         <v>106</v>
       </c>
       <c r="B549">
@@ -28670,7 +29716,7 @@
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A550" s="3" t="s">
+      <c r="A550" t="s">
         <v>106</v>
       </c>
       <c r="B550">
@@ -28696,7 +29742,7 @@
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A551" s="3" t="s">
+      <c r="A551" t="s">
         <v>106</v>
       </c>
       <c r="B551">
@@ -28722,7 +29768,7 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A552" s="3" t="s">
+      <c r="A552" t="s">
         <v>106</v>
       </c>
       <c r="B552">
@@ -28748,7 +29794,7 @@
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A553" s="3" t="s">
+      <c r="A553" t="s">
         <v>106</v>
       </c>
       <c r="B553">
@@ -28774,7 +29820,7 @@
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A554" s="3" t="s">
+      <c r="A554" t="s">
         <v>106</v>
       </c>
       <c r="B554">
@@ -28800,7 +29846,7 @@
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A555" s="3" t="s">
+      <c r="A555" t="s">
         <v>106</v>
       </c>
       <c r="B555">
@@ -28826,7 +29872,7 @@
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A556" s="3" t="s">
+      <c r="A556" t="s">
         <v>106</v>
       </c>
       <c r="B556">
@@ -28852,7 +29898,7 @@
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A557" s="3" t="s">
+      <c r="A557" t="s">
         <v>106</v>
       </c>
       <c r="B557">
@@ -28878,7 +29924,7 @@
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A558" s="3" t="s">
+      <c r="A558" t="s">
         <v>106</v>
       </c>
       <c r="B558">
@@ -28904,7 +29950,7 @@
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A559" s="3" t="s">
+      <c r="A559" t="s">
         <v>106</v>
       </c>
       <c r="B559">
@@ -28930,7 +29976,7 @@
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A560" s="3" t="s">
+      <c r="A560" t="s">
         <v>106</v>
       </c>
       <c r="B560">
@@ -28956,7 +30002,7 @@
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A561" s="3" t="s">
+      <c r="A561" t="s">
         <v>106</v>
       </c>
       <c r="B561">
@@ -28982,7 +30028,7 @@
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A562" s="3" t="s">
+      <c r="A562" t="s">
         <v>106</v>
       </c>
       <c r="B562">
@@ -29008,7 +30054,7 @@
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A563" s="3" t="s">
+      <c r="A563" t="s">
         <v>106</v>
       </c>
       <c r="B563">
@@ -29034,7 +30080,7 @@
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A564" s="3" t="s">
+      <c r="A564" t="s">
         <v>106</v>
       </c>
       <c r="B564">
@@ -29060,7 +30106,7 @@
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A565" s="3" t="s">
+      <c r="A565" t="s">
         <v>106</v>
       </c>
       <c r="B565">
@@ -29086,7 +30132,7 @@
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A566" s="3" t="s">
+      <c r="A566" t="s">
         <v>106</v>
       </c>
       <c r="B566">
@@ -29112,7 +30158,7 @@
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A567" s="3" t="s">
+      <c r="A567" t="s">
         <v>106</v>
       </c>
       <c r="B567">
@@ -29138,7 +30184,7 @@
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A568" s="3" t="s">
+      <c r="A568" t="s">
         <v>106</v>
       </c>
       <c r="B568">
@@ -29164,7 +30210,7 @@
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A569" s="3" t="s">
+      <c r="A569" t="s">
         <v>106</v>
       </c>
       <c r="B569">
@@ -29190,7 +30236,7 @@
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A570" s="3" t="s">
+      <c r="A570" t="s">
         <v>106</v>
       </c>
       <c r="B570">
@@ -29216,7 +30262,7 @@
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A571" s="3" t="s">
+      <c r="A571" t="s">
         <v>106</v>
       </c>
       <c r="B571">
@@ -29242,7 +30288,7 @@
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A572" s="3" t="s">
+      <c r="A572" t="s">
         <v>106</v>
       </c>
       <c r="B572">
@@ -29268,7 +30314,7 @@
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A573" s="3" t="s">
+      <c r="A573" t="s">
         <v>106</v>
       </c>
       <c r="B573">
@@ -29294,7 +30340,7 @@
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A574" s="3" t="s">
+      <c r="A574" t="s">
         <v>106</v>
       </c>
       <c r="B574">
@@ -29320,7 +30366,7 @@
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A575" s="3" t="s">
+      <c r="A575" t="s">
         <v>106</v>
       </c>
       <c r="B575">
@@ -29346,7 +30392,7 @@
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A576" s="3" t="s">
+      <c r="A576" t="s">
         <v>106</v>
       </c>
       <c r="B576">
@@ -29372,7 +30418,7 @@
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A577" s="3" t="s">
+      <c r="A577" t="s">
         <v>106</v>
       </c>
       <c r="B577">
@@ -29398,7 +30444,7 @@
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A578" s="3" t="s">
+      <c r="A578" t="s">
         <v>106</v>
       </c>
       <c r="B578">
@@ -29424,7 +30470,7 @@
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A579" s="3" t="s">
+      <c r="A579" t="s">
         <v>106</v>
       </c>
       <c r="B579">
@@ -29450,7 +30496,7 @@
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A580" s="3" t="s">
+      <c r="A580" t="s">
         <v>106</v>
       </c>
       <c r="B580">
@@ -29476,7 +30522,7 @@
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A581" s="3" t="s">
+      <c r="A581" t="s">
         <v>107</v>
       </c>
       <c r="B581">
@@ -29502,7 +30548,7 @@
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A582" s="3" t="s">
+      <c r="A582" t="s">
         <v>107</v>
       </c>
       <c r="B582">
@@ -29528,7 +30574,7 @@
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A583" s="3" t="s">
+      <c r="A583" t="s">
         <v>107</v>
       </c>
       <c r="B583">
@@ -29554,7 +30600,7 @@
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A584" s="3" t="s">
+      <c r="A584" t="s">
         <v>107</v>
       </c>
       <c r="B584">
@@ -29580,7 +30626,7 @@
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A585" s="3" t="s">
+      <c r="A585" t="s">
         <v>107</v>
       </c>
       <c r="B585">
@@ -29606,7 +30652,7 @@
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A586" s="3" t="s">
+      <c r="A586" t="s">
         <v>107</v>
       </c>
       <c r="B586">
@@ -29632,7 +30678,7 @@
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A587" s="3" t="s">
+      <c r="A587" t="s">
         <v>107</v>
       </c>
       <c r="B587">
@@ -29658,7 +30704,7 @@
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A588" s="3" t="s">
+      <c r="A588" t="s">
         <v>107</v>
       </c>
       <c r="B588">
@@ -29684,7 +30730,7 @@
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A589" s="3" t="s">
+      <c r="A589" t="s">
         <v>107</v>
       </c>
       <c r="B589">
@@ -29710,7 +30756,7 @@
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A590" s="3" t="s">
+      <c r="A590" t="s">
         <v>107</v>
       </c>
       <c r="B590">
@@ -29736,7 +30782,7 @@
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A591" s="3" t="s">
+      <c r="A591" t="s">
         <v>107</v>
       </c>
       <c r="B591">
@@ -29762,7 +30808,7 @@
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A592" s="3" t="s">
+      <c r="A592" t="s">
         <v>107</v>
       </c>
       <c r="B592">
@@ -29788,7 +30834,7 @@
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A593" s="3" t="s">
+      <c r="A593" t="s">
         <v>107</v>
       </c>
       <c r="B593">
@@ -29814,7 +30860,7 @@
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A594" s="3" t="s">
+      <c r="A594" t="s">
         <v>107</v>
       </c>
       <c r="B594">
@@ -29840,7 +30886,7 @@
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A595" s="3" t="s">
+      <c r="A595" t="s">
         <v>107</v>
       </c>
       <c r="B595">
@@ -29866,7 +30912,7 @@
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A596" s="3" t="s">
+      <c r="A596" t="s">
         <v>107</v>
       </c>
       <c r="B596">
@@ -29892,7 +30938,7 @@
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A597" s="3" t="s">
+      <c r="A597" t="s">
         <v>107</v>
       </c>
       <c r="B597">
@@ -29918,7 +30964,7 @@
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A598" s="3" t="s">
+      <c r="A598" t="s">
         <v>107</v>
       </c>
       <c r="B598">
@@ -29944,7 +30990,7 @@
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A599" s="3" t="s">
+      <c r="A599" t="s">
         <v>107</v>
       </c>
       <c r="B599">
@@ -29970,7 +31016,7 @@
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A600" s="3" t="s">
+      <c r="A600" t="s">
         <v>107</v>
       </c>
       <c r="B600">
@@ -29996,7 +31042,7 @@
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A601" s="3" t="s">
+      <c r="A601" t="s">
         <v>107</v>
       </c>
       <c r="B601">
@@ -30022,7 +31068,7 @@
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A602" s="3" t="s">
+      <c r="A602" t="s">
         <v>107</v>
       </c>
       <c r="B602">
@@ -30048,7 +31094,7 @@
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A603" s="3" t="s">
+      <c r="A603" t="s">
         <v>107</v>
       </c>
       <c r="B603">
@@ -30074,7 +31120,7 @@
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A604" s="3" t="s">
+      <c r="A604" t="s">
         <v>107</v>
       </c>
       <c r="B604">
@@ -30100,7 +31146,7 @@
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A605" s="3" t="s">
+      <c r="A605" t="s">
         <v>107</v>
       </c>
       <c r="B605">
@@ -30126,7 +31172,7 @@
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A606" s="3" t="s">
+      <c r="A606" t="s">
         <v>107</v>
       </c>
       <c r="B606">
@@ -30152,7 +31198,7 @@
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A607" s="3" t="s">
+      <c r="A607" t="s">
         <v>107</v>
       </c>
       <c r="B607">
@@ -30178,7 +31224,7 @@
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A608" s="3" t="s">
+      <c r="A608" t="s">
         <v>107</v>
       </c>
       <c r="B608">
@@ -30204,7 +31250,7 @@
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A609" s="3" t="s">
+      <c r="A609" t="s">
         <v>107</v>
       </c>
       <c r="B609">
@@ -30230,7 +31276,7 @@
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A610" s="3" t="s">
+      <c r="A610" t="s">
         <v>107</v>
       </c>
       <c r="B610">
@@ -30256,7 +31302,7 @@
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A611" s="3" t="s">
+      <c r="A611" t="s">
         <v>107</v>
       </c>
       <c r="B611">
@@ -30282,7 +31328,7 @@
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A612" s="3" t="s">
+      <c r="A612" t="s">
         <v>107</v>
       </c>
       <c r="B612">
@@ -30308,7 +31354,7 @@
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A613" s="3" t="s">
+      <c r="A613" t="s">
         <v>107</v>
       </c>
       <c r="B613">
@@ -30334,7 +31380,7 @@
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A614" s="3" t="s">
+      <c r="A614" t="s">
         <v>107</v>
       </c>
       <c r="B614">
@@ -30360,7 +31406,7 @@
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A615" s="3" t="s">
+      <c r="A615" t="s">
         <v>107</v>
       </c>
       <c r="B615">
@@ -30386,7 +31432,7 @@
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A616" s="3" t="s">
+      <c r="A616" t="s">
         <v>107</v>
       </c>
       <c r="B616">
@@ -30412,7 +31458,7 @@
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A617" s="3" t="s">
+      <c r="A617" t="s">
         <v>107</v>
       </c>
       <c r="B617">
@@ -30438,7 +31484,7 @@
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A618" s="3" t="s">
+      <c r="A618" t="s">
         <v>107</v>
       </c>
       <c r="B618">
@@ -30464,7 +31510,7 @@
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A619" s="3" t="s">
+      <c r="A619" t="s">
         <v>108</v>
       </c>
       <c r="B619">
@@ -30490,7 +31536,7 @@
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A620" s="3" t="s">
+      <c r="A620" t="s">
         <v>108</v>
       </c>
       <c r="B620">
@@ -30516,7 +31562,7 @@
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A621" s="3" t="s">
+      <c r="A621" t="s">
         <v>108</v>
       </c>
       <c r="B621">
@@ -30542,7 +31588,7 @@
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A622" s="3" t="s">
+      <c r="A622" t="s">
         <v>108</v>
       </c>
       <c r="B622">
@@ -30568,7 +31614,7 @@
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A623" s="3" t="s">
+      <c r="A623" t="s">
         <v>108</v>
       </c>
       <c r="B623">
@@ -30594,7 +31640,7 @@
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A624" s="3" t="s">
+      <c r="A624" t="s">
         <v>108</v>
       </c>
       <c r="B624">
@@ -30620,7 +31666,7 @@
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A625" s="3" t="s">
+      <c r="A625" t="s">
         <v>108</v>
       </c>
       <c r="B625">
@@ -30646,7 +31692,7 @@
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A626" s="3" t="s">
+      <c r="A626" t="s">
         <v>108</v>
       </c>
       <c r="B626">
@@ -30672,7 +31718,7 @@
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A627" s="3" t="s">
+      <c r="A627" t="s">
         <v>108</v>
       </c>
       <c r="B627">
@@ -30698,7 +31744,7 @@
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A628" s="3" t="s">
+      <c r="A628" t="s">
         <v>108</v>
       </c>
       <c r="B628">
@@ -30724,7 +31770,7 @@
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A629" s="3" t="s">
+      <c r="A629" t="s">
         <v>108</v>
       </c>
       <c r="B629">
@@ -30750,7 +31796,7 @@
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A630" s="3" t="s">
+      <c r="A630" t="s">
         <v>108</v>
       </c>
       <c r="B630">
@@ -30776,7 +31822,7 @@
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A631" s="3" t="s">
+      <c r="A631" t="s">
         <v>108</v>
       </c>
       <c r="B631">
@@ -30802,7 +31848,7 @@
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A632" s="3" t="s">
+      <c r="A632" t="s">
         <v>108</v>
       </c>
       <c r="B632">
@@ -30828,7 +31874,7 @@
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A633" s="3" t="s">
+      <c r="A633" t="s">
         <v>108</v>
       </c>
       <c r="B633">
@@ -30854,7 +31900,7 @@
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A634" s="3" t="s">
+      <c r="A634" t="s">
         <v>108</v>
       </c>
       <c r="B634">
@@ -30880,7 +31926,7 @@
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A635" s="3" t="s">
+      <c r="A635" t="s">
         <v>108</v>
       </c>
       <c r="B635">
@@ -30906,7 +31952,7 @@
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A636" s="3" t="s">
+      <c r="A636" t="s">
         <v>108</v>
       </c>
       <c r="B636">
@@ -30932,7 +31978,7 @@
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A637" s="3" t="s">
+      <c r="A637" t="s">
         <v>108</v>
       </c>
       <c r="B637">
@@ -30958,7 +32004,7 @@
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A638" s="3" t="s">
+      <c r="A638" t="s">
         <v>108</v>
       </c>
       <c r="B638">
@@ -30984,7 +32030,7 @@
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A639" s="3" t="s">
+      <c r="A639" t="s">
         <v>108</v>
       </c>
       <c r="B639">
@@ -31010,7 +32056,7 @@
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A640" s="3" t="s">
+      <c r="A640" t="s">
         <v>108</v>
       </c>
       <c r="B640">
@@ -31036,7 +32082,7 @@
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A641" s="3" t="s">
+      <c r="A641" t="s">
         <v>108</v>
       </c>
       <c r="B641">
@@ -31062,7 +32108,7 @@
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A642" s="3" t="s">
+      <c r="A642" t="s">
         <v>108</v>
       </c>
       <c r="B642">
@@ -31088,7 +32134,7 @@
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A643" s="3" t="s">
+      <c r="A643" t="s">
         <v>108</v>
       </c>
       <c r="B643">
@@ -31114,7 +32160,7 @@
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A644" s="3" t="s">
+      <c r="A644" t="s">
         <v>108</v>
       </c>
       <c r="B644">
@@ -31140,7 +32186,7 @@
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A645" s="3" t="s">
+      <c r="A645" t="s">
         <v>108</v>
       </c>
       <c r="B645">
@@ -31166,7 +32212,7 @@
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A646" s="3" t="s">
+      <c r="A646" t="s">
         <v>108</v>
       </c>
       <c r="B646">
@@ -31192,7 +32238,7 @@
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A647" s="3" t="s">
+      <c r="A647" t="s">
         <v>108</v>
       </c>
       <c r="B647">
@@ -31218,7 +32264,7 @@
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A648" s="3" t="s">
+      <c r="A648" t="s">
         <v>108</v>
       </c>
       <c r="B648">
@@ -31244,7 +32290,7 @@
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A649" s="3" t="s">
+      <c r="A649" t="s">
         <v>108</v>
       </c>
       <c r="B649">
@@ -31270,7 +32316,7 @@
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A650" s="3" t="s">
+      <c r="A650" t="s">
         <v>108</v>
       </c>
       <c r="B650">
@@ -31296,7 +32342,7 @@
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A651" s="3" t="s">
+      <c r="A651" t="s">
         <v>108</v>
       </c>
       <c r="B651">
@@ -31322,7 +32368,7 @@
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A652" s="3" t="s">
+      <c r="A652" t="s">
         <v>108</v>
       </c>
       <c r="B652">
@@ -31348,7 +32394,7 @@
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A653" s="3" t="s">
+      <c r="A653" t="s">
         <v>109</v>
       </c>
       <c r="B653">
@@ -31374,7 +32420,7 @@
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A654" s="3" t="s">
+      <c r="A654" t="s">
         <v>109</v>
       </c>
       <c r="B654">
@@ -31400,7 +32446,7 @@
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A655" s="3" t="s">
+      <c r="A655" t="s">
         <v>109</v>
       </c>
       <c r="B655">
@@ -31426,7 +32472,7 @@
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A656" s="3" t="s">
+      <c r="A656" t="s">
         <v>109</v>
       </c>
       <c r="B656">
@@ -31452,7 +32498,7 @@
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A657" s="3" t="s">
+      <c r="A657" t="s">
         <v>109</v>
       </c>
       <c r="B657">
@@ -31478,7 +32524,7 @@
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A658" s="3" t="s">
+      <c r="A658" t="s">
         <v>109</v>
       </c>
       <c r="B658">
@@ -31504,7 +32550,7 @@
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A659" s="3" t="s">
+      <c r="A659" t="s">
         <v>109</v>
       </c>
       <c r="B659">
@@ -31530,7 +32576,7 @@
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A660" s="3" t="s">
+      <c r="A660" t="s">
         <v>109</v>
       </c>
       <c r="B660">
@@ -31556,7 +32602,7 @@
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A661" s="3" t="s">
+      <c r="A661" t="s">
         <v>109</v>
       </c>
       <c r="B661">
@@ -31582,7 +32628,7 @@
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A662" s="3" t="s">
+      <c r="A662" t="s">
         <v>109</v>
       </c>
       <c r="B662">
@@ -31608,7 +32654,7 @@
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A663" s="3" t="s">
+      <c r="A663" t="s">
         <v>109</v>
       </c>
       <c r="B663">
@@ -31634,7 +32680,7 @@
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A664" s="3" t="s">
+      <c r="A664" t="s">
         <v>109</v>
       </c>
       <c r="B664">
@@ -31660,7 +32706,7 @@
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A665" s="3" t="s">
+      <c r="A665" t="s">
         <v>109</v>
       </c>
       <c r="B665">
@@ -31686,7 +32732,7 @@
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A666" s="3" t="s">
+      <c r="A666" t="s">
         <v>109</v>
       </c>
       <c r="B666">
@@ -31712,7 +32758,7 @@
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A667" s="3" t="s">
+      <c r="A667" t="s">
         <v>109</v>
       </c>
       <c r="B667">
@@ -31738,7 +32784,7 @@
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A668" s="3" t="s">
+      <c r="A668" t="s">
         <v>109</v>
       </c>
       <c r="B668">
@@ -31764,7 +32810,7 @@
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A669" s="3" t="s">
+      <c r="A669" t="s">
         <v>109</v>
       </c>
       <c r="B669">
@@ -31790,7 +32836,7 @@
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A670" s="3" t="s">
+      <c r="A670" t="s">
         <v>109</v>
       </c>
       <c r="B670">
@@ -31816,7 +32862,7 @@
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A671" s="3" t="s">
+      <c r="A671" t="s">
         <v>109</v>
       </c>
       <c r="B671">
@@ -31842,7 +32888,7 @@
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A672" s="3" t="s">
+      <c r="A672" t="s">
         <v>109</v>
       </c>
       <c r="B672">
@@ -31868,7 +32914,7 @@
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A673" s="3" t="s">
+      <c r="A673" t="s">
         <v>109</v>
       </c>
       <c r="B673">
@@ -31894,7 +32940,7 @@
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A674" s="3" t="s">
+      <c r="A674" t="s">
         <v>109</v>
       </c>
       <c r="B674">
@@ -31920,7 +32966,7 @@
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A675" s="3" t="s">
+      <c r="A675" t="s">
         <v>109</v>
       </c>
       <c r="B675">
@@ -31946,7 +32992,7 @@
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A676" s="3" t="s">
+      <c r="A676" t="s">
         <v>109</v>
       </c>
       <c r="B676">
@@ -31972,7 +33018,7 @@
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A677" s="3" t="s">
+      <c r="A677" t="s">
         <v>109</v>
       </c>
       <c r="B677">
@@ -31998,7 +33044,7 @@
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A678" s="3" t="s">
+      <c r="A678" t="s">
         <v>109</v>
       </c>
       <c r="B678">
@@ -32024,7 +33070,7 @@
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A679" s="3" t="s">
+      <c r="A679" t="s">
         <v>109</v>
       </c>
       <c r="B679">
@@ -32050,7 +33096,7 @@
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A680" s="3" t="s">
+      <c r="A680" t="s">
         <v>109</v>
       </c>
       <c r="B680">
@@ -32076,7 +33122,7 @@
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A681" s="3" t="s">
+      <c r="A681" t="s">
         <v>109</v>
       </c>
       <c r="B681">
@@ -32102,7 +33148,7 @@
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A682" s="3" t="s">
+      <c r="A682" t="s">
         <v>109</v>
       </c>
       <c r="B682">
@@ -32128,7 +33174,7 @@
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A683" s="3" t="s">
+      <c r="A683" t="s">
         <v>109</v>
       </c>
       <c r="B683">
@@ -32154,7 +33200,7 @@
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A684" s="3" t="s">
+      <c r="A684" t="s">
         <v>109</v>
       </c>
       <c r="B684">
@@ -32180,7 +33226,7 @@
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A685" s="3" t="s">
+      <c r="A685" t="s">
         <v>110</v>
       </c>
       <c r="B685">
@@ -32206,7 +33252,7 @@
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A686" s="3" t="s">
+      <c r="A686" t="s">
         <v>110</v>
       </c>
       <c r="B686">
@@ -32232,7 +33278,7 @@
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A687" s="3" t="s">
+      <c r="A687" t="s">
         <v>110</v>
       </c>
       <c r="B687">
@@ -32258,7 +33304,7 @@
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A688" s="3" t="s">
+      <c r="A688" t="s">
         <v>110</v>
       </c>
       <c r="B688">
@@ -32284,7 +33330,7 @@
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A689" s="3" t="s">
+      <c r="A689" t="s">
         <v>110</v>
       </c>
       <c r="B689">
@@ -32310,7 +33356,7 @@
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A690" s="3" t="s">
+      <c r="A690" t="s">
         <v>110</v>
       </c>
       <c r="B690">
@@ -32336,7 +33382,7 @@
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A691" s="3" t="s">
+      <c r="A691" t="s">
         <v>110</v>
       </c>
       <c r="B691">
@@ -32362,7 +33408,7 @@
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A692" s="3" t="s">
+      <c r="A692" t="s">
         <v>110</v>
       </c>
       <c r="B692">
@@ -32388,7 +33434,7 @@
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A693" s="3" t="s">
+      <c r="A693" t="s">
         <v>110</v>
       </c>
       <c r="B693">
@@ -32414,7 +33460,7 @@
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A694" s="3" t="s">
+      <c r="A694" t="s">
         <v>110</v>
       </c>
       <c r="B694">
@@ -32440,7 +33486,7 @@
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A695" s="3" t="s">
+      <c r="A695" t="s">
         <v>110</v>
       </c>
       <c r="B695">
@@ -32466,7 +33512,7 @@
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A696" s="3" t="s">
+      <c r="A696" t="s">
         <v>110</v>
       </c>
       <c r="B696">
@@ -32492,7 +33538,7 @@
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A697" s="3" t="s">
+      <c r="A697" t="s">
         <v>110</v>
       </c>
       <c r="B697">
@@ -32518,7 +33564,7 @@
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A698" s="3" t="s">
+      <c r="A698" t="s">
         <v>110</v>
       </c>
       <c r="B698">
@@ -32544,7 +33590,7 @@
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A699" s="3" t="s">
+      <c r="A699" t="s">
         <v>110</v>
       </c>
       <c r="B699">
@@ -32570,7 +33616,7 @@
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A700" s="3" t="s">
+      <c r="A700" t="s">
         <v>110</v>
       </c>
       <c r="B700">
@@ -32596,7 +33642,7 @@
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A701" s="3" t="s">
+      <c r="A701" t="s">
         <v>110</v>
       </c>
       <c r="B701">
@@ -32622,7 +33668,7 @@
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A702" s="3" t="s">
+      <c r="A702" t="s">
         <v>110</v>
       </c>
       <c r="B702">
@@ -32648,7 +33694,7 @@
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A703" s="3" t="s">
+      <c r="A703" t="s">
         <v>110</v>
       </c>
       <c r="B703">
@@ -32674,7 +33720,7 @@
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A704" s="3" t="s">
+      <c r="A704" t="s">
         <v>110</v>
       </c>
       <c r="B704">
@@ -32700,7 +33746,7 @@
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A705" s="3" t="s">
+      <c r="A705" t="s">
         <v>110</v>
       </c>
       <c r="B705">
@@ -32726,7 +33772,7 @@
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A706" s="3" t="s">
+      <c r="A706" t="s">
         <v>110</v>
       </c>
       <c r="B706">
@@ -32752,7 +33798,7 @@
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A707" s="3" t="s">
+      <c r="A707" t="s">
         <v>110</v>
       </c>
       <c r="B707">
@@ -32778,7 +33824,7 @@
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A708" s="3" t="s">
+      <c r="A708" t="s">
         <v>110</v>
       </c>
       <c r="B708">
@@ -32804,7 +33850,7 @@
       </c>
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A709" s="3" t="s">
+      <c r="A709" t="s">
         <v>110</v>
       </c>
       <c r="B709">
@@ -32830,7 +33876,7 @@
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A710" s="3" t="s">
+      <c r="A710" t="s">
         <v>110</v>
       </c>
       <c r="B710">
@@ -32856,7 +33902,7 @@
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A711" s="3" t="s">
+      <c r="A711" t="s">
         <v>110</v>
       </c>
       <c r="B711">
@@ -32882,7 +33928,7 @@
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A712" s="3" t="s">
+      <c r="A712" t="s">
         <v>110</v>
       </c>
       <c r="B712">
@@ -32908,7 +33954,7 @@
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A713" s="3" t="s">
+      <c r="A713" t="s">
         <v>110</v>
       </c>
       <c r="B713">
@@ -32934,7 +33980,7 @@
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A714" s="3" t="s">
+      <c r="A714" t="s">
         <v>110</v>
       </c>
       <c r="B714">
@@ -32960,7 +34006,7 @@
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A715" s="3" t="s">
+      <c r="A715" t="s">
         <v>110</v>
       </c>
       <c r="B715">
@@ -32986,7 +34032,7 @@
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A716" s="3" t="s">
+      <c r="A716" t="s">
         <v>110</v>
       </c>
       <c r="B716">
@@ -33012,7 +34058,7 @@
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A717" s="3" t="s">
+      <c r="A717" t="s">
         <v>110</v>
       </c>
       <c r="B717">
@@ -33038,7 +34084,7 @@
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A718" s="3" t="s">
+      <c r="A718" t="s">
         <v>110</v>
       </c>
       <c r="B718">
@@ -33064,7 +34110,7 @@
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A719" s="3" t="s">
+      <c r="A719" t="s">
         <v>110</v>
       </c>
       <c r="B719">
@@ -33090,7 +34136,7 @@
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A720" s="3" t="s">
+      <c r="A720" t="s">
         <v>110</v>
       </c>
       <c r="B720">
@@ -33116,7 +34162,7 @@
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A721" s="3" t="s">
+      <c r="A721" t="s">
         <v>110</v>
       </c>
       <c r="B721">
@@ -33142,7 +34188,7 @@
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A722" s="3" t="s">
+      <c r="A722" t="s">
         <v>110</v>
       </c>
       <c r="B722">
@@ -33168,7 +34214,7 @@
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A723" s="3" t="s">
+      <c r="A723" t="s">
         <v>110</v>
       </c>
       <c r="B723">
@@ -33194,7 +34240,7 @@
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A724" s="3" t="s">
+      <c r="A724" t="s">
         <v>110</v>
       </c>
       <c r="B724">
@@ -33220,7 +34266,7 @@
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A725" s="3" t="s">
+      <c r="A725" t="s">
         <v>110</v>
       </c>
       <c r="B725">
@@ -33246,7 +34292,7 @@
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A726" s="3" t="s">
+      <c r="A726" t="s">
         <v>110</v>
       </c>
       <c r="B726">
@@ -33272,7 +34318,7 @@
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A727" s="3" t="s">
+      <c r="A727" t="s">
         <v>111</v>
       </c>
       <c r="B727">
@@ -33298,7 +34344,7 @@
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A728" s="3" t="s">
+      <c r="A728" t="s">
         <v>111</v>
       </c>
       <c r="B728">
@@ -33324,7 +34370,7 @@
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A729" s="3" t="s">
+      <c r="A729" t="s">
         <v>111</v>
       </c>
       <c r="B729">
@@ -33350,7 +34396,7 @@
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A730" s="3" t="s">
+      <c r="A730" t="s">
         <v>111</v>
       </c>
       <c r="B730">
@@ -33376,7 +34422,7 @@
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A731" s="3" t="s">
+      <c r="A731" t="s">
         <v>111</v>
       </c>
       <c r="B731">
@@ -33402,7 +34448,7 @@
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A732" s="3" t="s">
+      <c r="A732" t="s">
         <v>111</v>
       </c>
       <c r="B732">
@@ -33428,7 +34474,7 @@
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A733" s="3" t="s">
+      <c r="A733" t="s">
         <v>111</v>
       </c>
       <c r="B733">
@@ -33454,7 +34500,7 @@
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A734" s="3" t="s">
+      <c r="A734" t="s">
         <v>111</v>
       </c>
       <c r="B734">
@@ -33480,7 +34526,7 @@
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A735" s="3" t="s">
+      <c r="A735" t="s">
         <v>111</v>
       </c>
       <c r="B735">
@@ -33506,7 +34552,7 @@
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A736" s="3" t="s">
+      <c r="A736" t="s">
         <v>111</v>
       </c>
       <c r="B736">
@@ -33532,7 +34578,7 @@
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A737" s="3" t="s">
+      <c r="A737" t="s">
         <v>111</v>
       </c>
       <c r="B737">
@@ -33558,7 +34604,7 @@
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A738" s="3" t="s">
+      <c r="A738" t="s">
         <v>111</v>
       </c>
       <c r="B738">
@@ -33584,7 +34630,7 @@
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A739" s="3" t="s">
+      <c r="A739" t="s">
         <v>111</v>
       </c>
       <c r="B739">
@@ -33610,7 +34656,7 @@
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A740" s="3" t="s">
+      <c r="A740" t="s">
         <v>111</v>
       </c>
       <c r="B740">
@@ -33636,7 +34682,7 @@
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A741" s="3" t="s">
+      <c r="A741" t="s">
         <v>111</v>
       </c>
       <c r="B741">
@@ -33662,7 +34708,7 @@
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A742" s="3" t="s">
+      <c r="A742" t="s">
         <v>111</v>
       </c>
       <c r="B742">
@@ -33688,7 +34734,7 @@
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A743" s="3" t="s">
+      <c r="A743" t="s">
         <v>111</v>
       </c>
       <c r="B743">
@@ -33714,7 +34760,7 @@
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A744" s="3" t="s">
+      <c r="A744" t="s">
         <v>111</v>
       </c>
       <c r="B744">
@@ -33740,7 +34786,7 @@
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A745" s="3" t="s">
+      <c r="A745" t="s">
         <v>111</v>
       </c>
       <c r="B745">
@@ -33766,7 +34812,7 @@
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A746" s="3" t="s">
+      <c r="A746" t="s">
         <v>111</v>
       </c>
       <c r="B746">
@@ -33792,7 +34838,7 @@
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A747" s="3" t="s">
+      <c r="A747" t="s">
         <v>111</v>
       </c>
       <c r="B747">
@@ -33818,7 +34864,7 @@
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A748" s="3" t="s">
+      <c r="A748" t="s">
         <v>111</v>
       </c>
       <c r="B748">
@@ -33844,7 +34890,7 @@
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A749" s="3" t="s">
+      <c r="A749" t="s">
         <v>111</v>
       </c>
       <c r="B749">
@@ -33870,7 +34916,7 @@
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A750" s="3" t="s">
+      <c r="A750" t="s">
         <v>111</v>
       </c>
       <c r="B750">
@@ -33896,7 +34942,7 @@
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A751" s="3" t="s">
+      <c r="A751" t="s">
         <v>111</v>
       </c>
       <c r="B751">
@@ -33922,7 +34968,7 @@
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A752" s="3" t="s">
+      <c r="A752" t="s">
         <v>111</v>
       </c>
       <c r="B752">
@@ -33948,7 +34994,7 @@
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A753" s="3" t="s">
+      <c r="A753" t="s">
         <v>111</v>
       </c>
       <c r="B753">
@@ -33974,7 +35020,7 @@
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A754" s="3" t="s">
+      <c r="A754" t="s">
         <v>111</v>
       </c>
       <c r="B754">
@@ -34000,7 +35046,7 @@
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A755" s="3" t="s">
+      <c r="A755" t="s">
         <v>111</v>
       </c>
       <c r="B755">
@@ -34026,7 +35072,7 @@
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A756" s="3" t="s">
+      <c r="A756" t="s">
         <v>111</v>
       </c>
       <c r="B756">
@@ -34052,7 +35098,7 @@
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A757" s="3" t="s">
+      <c r="A757" t="s">
         <v>111</v>
       </c>
       <c r="B757">
@@ -34078,7 +35124,7 @@
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A758" s="3" t="s">
+      <c r="A758" t="s">
         <v>111</v>
       </c>
       <c r="B758">
@@ -34104,7 +35150,7 @@
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A759" s="3" t="s">
+      <c r="A759" t="s">
         <v>111</v>
       </c>
       <c r="B759">
@@ -34130,7 +35176,7 @@
       </c>
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A760" s="3" t="s">
+      <c r="A760" t="s">
         <v>111</v>
       </c>
       <c r="B760">
@@ -34156,7 +35202,7 @@
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A761" s="3" t="s">
+      <c r="A761" t="s">
         <v>111</v>
       </c>
       <c r="B761">
@@ -34182,7 +35228,7 @@
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A762" s="3" t="s">
+      <c r="A762" t="s">
         <v>111</v>
       </c>
       <c r="B762">
@@ -34208,7 +35254,7 @@
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A763" s="3" t="s">
+      <c r="A763" t="s">
         <v>111</v>
       </c>
       <c r="B763">
@@ -34234,7 +35280,7 @@
       </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A764" s="3" t="s">
+      <c r="A764" t="s">
         <v>111</v>
       </c>
       <c r="B764">
@@ -34260,7 +35306,7 @@
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A765" s="3" t="s">
+      <c r="A765" t="s">
         <v>111</v>
       </c>
       <c r="B765">
@@ -34286,7 +35332,7 @@
       </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A766" s="3" t="s">
+      <c r="A766" t="s">
         <v>111</v>
       </c>
       <c r="B766">
@@ -34312,7 +35358,7 @@
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A767" s="3" t="s">
+      <c r="A767" t="s">
         <v>112</v>
       </c>
       <c r="B767">
@@ -34338,7 +35384,7 @@
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A768" s="3" t="s">
+      <c r="A768" t="s">
         <v>112</v>
       </c>
       <c r="B768">
@@ -34364,7 +35410,7 @@
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A769" s="3" t="s">
+      <c r="A769" t="s">
         <v>112</v>
       </c>
       <c r="B769">
@@ -34390,7 +35436,7 @@
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A770" s="3" t="s">
+      <c r="A770" t="s">
         <v>112</v>
       </c>
       <c r="B770">
@@ -34416,7 +35462,7 @@
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A771" s="3" t="s">
+      <c r="A771" t="s">
         <v>112</v>
       </c>
       <c r="B771">
@@ -34442,7 +35488,7 @@
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A772" s="3" t="s">
+      <c r="A772" t="s">
         <v>112</v>
       </c>
       <c r="B772">
@@ -34468,7 +35514,7 @@
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A773" s="3" t="s">
+      <c r="A773" t="s">
         <v>112</v>
       </c>
       <c r="B773">
@@ -34494,7 +35540,7 @@
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A774" s="3" t="s">
+      <c r="A774" t="s">
         <v>112</v>
       </c>
       <c r="B774">
@@ -34520,7 +35566,7 @@
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A775" s="3" t="s">
+      <c r="A775" t="s">
         <v>112</v>
       </c>
       <c r="B775">
@@ -34546,7 +35592,7 @@
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A776" s="3" t="s">
+      <c r="A776" t="s">
         <v>112</v>
       </c>
       <c r="B776">
@@ -34572,7 +35618,7 @@
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A777" s="3" t="s">
+      <c r="A777" t="s">
         <v>112</v>
       </c>
       <c r="B777">
@@ -34598,7 +35644,7 @@
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A778" s="3" t="s">
+      <c r="A778" t="s">
         <v>112</v>
       </c>
       <c r="B778">
@@ -34624,7 +35670,7 @@
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A779" s="3" t="s">
+      <c r="A779" t="s">
         <v>112</v>
       </c>
       <c r="B779">
@@ -34650,7 +35696,7 @@
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A780" s="3" t="s">
+      <c r="A780" t="s">
         <v>112</v>
       </c>
       <c r="B780">
@@ -34676,7 +35722,7 @@
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A781" s="3" t="s">
+      <c r="A781" t="s">
         <v>112</v>
       </c>
       <c r="B781">
@@ -34702,7 +35748,7 @@
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A782" s="3" t="s">
+      <c r="A782" t="s">
         <v>112</v>
       </c>
       <c r="B782">
@@ -34728,7 +35774,7 @@
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A783" s="3" t="s">
+      <c r="A783" t="s">
         <v>112</v>
       </c>
       <c r="B783">
@@ -34754,7 +35800,7 @@
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A784" s="3" t="s">
+      <c r="A784" t="s">
         <v>112</v>
       </c>
       <c r="B784">
@@ -34780,7 +35826,7 @@
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A785" s="3" t="s">
+      <c r="A785" t="s">
         <v>112</v>
       </c>
       <c r="B785">
@@ -34806,7 +35852,7 @@
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A786" s="3" t="s">
+      <c r="A786" t="s">
         <v>112</v>
       </c>
       <c r="B786">
@@ -34832,7 +35878,7 @@
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A787" s="3" t="s">
+      <c r="A787" t="s">
         <v>112</v>
       </c>
       <c r="B787">
@@ -34858,7 +35904,7 @@
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A788" s="3" t="s">
+      <c r="A788" t="s">
         <v>112</v>
       </c>
       <c r="B788">
@@ -34884,7 +35930,7 @@
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A789" s="3" t="s">
+      <c r="A789" t="s">
         <v>112</v>
       </c>
       <c r="B789">
@@ -34910,7 +35956,7 @@
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A790" s="3" t="s">
+      <c r="A790" t="s">
         <v>112</v>
       </c>
       <c r="B790">
@@ -34936,7 +35982,7 @@
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A791" s="3" t="s">
+      <c r="A791" t="s">
         <v>112</v>
       </c>
       <c r="B791">
@@ -34962,7 +36008,7 @@
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A792" s="3" t="s">
+      <c r="A792" t="s">
         <v>112</v>
       </c>
       <c r="B792">
@@ -34988,7 +36034,7 @@
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A793" s="3" t="s">
+      <c r="A793" t="s">
         <v>112</v>
       </c>
       <c r="B793">
@@ -35014,7 +36060,7 @@
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A794" s="3" t="s">
+      <c r="A794" t="s">
         <v>112</v>
       </c>
       <c r="B794">
@@ -35040,7 +36086,7 @@
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A795" s="3" t="s">
+      <c r="A795" t="s">
         <v>112</v>
       </c>
       <c r="B795">
@@ -35066,7 +36112,7 @@
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A796" s="3" t="s">
+      <c r="A796" t="s">
         <v>112</v>
       </c>
       <c r="B796">
@@ -35092,7 +36138,7 @@
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A797" s="3" t="s">
+      <c r="A797" t="s">
         <v>112</v>
       </c>
       <c r="B797">
@@ -35118,7 +36164,7 @@
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A798" s="3" t="s">
+      <c r="A798" t="s">
         <v>112</v>
       </c>
       <c r="B798">
@@ -35144,7 +36190,7 @@
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A799" s="3" t="s">
+      <c r="A799" t="s">
         <v>112</v>
       </c>
       <c r="B799">
@@ -35170,7 +36216,7 @@
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A800" s="3" t="s">
+      <c r="A800" t="s">
         <v>112</v>
       </c>
       <c r="B800">
@@ -35196,7 +36242,7 @@
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A801" s="3" t="s">
+      <c r="A801" t="s">
         <v>112</v>
       </c>
       <c r="B801">
@@ -35222,7 +36268,7 @@
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A802" s="3" t="s">
+      <c r="A802" t="s">
         <v>112</v>
       </c>
       <c r="B802">
@@ -35248,7 +36294,7 @@
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A803" s="3" t="s">
+      <c r="A803" t="s">
         <v>112</v>
       </c>
       <c r="B803">
@@ -35274,7 +36320,7 @@
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A804" s="3" t="s">
+      <c r="A804" t="s">
         <v>112</v>
       </c>
       <c r="B804">
@@ -35300,7 +36346,7 @@
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A805" s="3" t="s">
+      <c r="A805" t="s">
         <v>112</v>
       </c>
       <c r="B805">
@@ -35326,7 +36372,7 @@
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A806" s="3" t="s">
+      <c r="A806" t="s">
         <v>112</v>
       </c>
       <c r="B806">
@@ -35352,7 +36398,7 @@
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A807" s="3" t="s">
+      <c r="A807" t="s">
         <v>112</v>
       </c>
       <c r="B807">
